--- a/BAYN GY.xlsx
+++ b/BAYN GY.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1EFD0C0-094A-414A-B6AC-E3A0C5398D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6B0575-C0C4-4789-B679-F8A27E43AEEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51915" yWindow="1140" windowWidth="24855" windowHeight="19110" activeTab="1" xr2:uid="{4F5840C1-5FD8-4A3A-9BFB-E4B596159E87}"/>
+    <workbookView xWindow="1320" yWindow="1815" windowWidth="34260" windowHeight="17400" activeTab="1" xr2:uid="{4F5840C1-5FD8-4A3A-9BFB-E4B596159E87}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -370,7 +370,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -379,32 +379,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -779,7 +773,7 @@
   <dimension ref="B2:K16"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -802,13 +796,13 @@
       <c r="D2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="11" t="s">
         <v>45</v>
       </c>
       <c r="I2" t="s">
@@ -822,17 +816,17 @@
       <c r="B3" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="16"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="13"/>
       <c r="I3" t="s">
         <v>1</v>
       </c>
@@ -840,24 +834,24 @@
         <v>982.42</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="16"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="13"/>
       <c r="I4" t="s">
         <v>2</v>
       </c>
@@ -870,19 +864,19 @@
       <c r="B5" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="14">
         <v>1</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="15">
         <v>36866</v>
       </c>
-      <c r="G5" s="16"/>
+      <c r="G5" s="13"/>
       <c r="I5" t="s">
         <v>3</v>
       </c>
@@ -890,130 +884,98 @@
         <v>0</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="14">
         <v>1</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="15">
         <v>42629</v>
       </c>
-      <c r="G6" s="16"/>
+      <c r="G6" s="13"/>
       <c r="I6" t="s">
         <v>4</v>
       </c>
       <c r="J6" s="1">
-        <v>36575</v>
+        <v>35884</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="16"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="13"/>
       <c r="I7" t="s">
         <v>5</v>
       </c>
       <c r="J7" s="1">
         <f>+J4-J5+J6</f>
-        <v>83554.324399999998</v>
+        <v>82863.324399999998</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="7"/>
+      <c r="G8" s="6"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="7"/>
+      <c r="G9" s="6"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="7"/>
+      <c r="G10" s="6"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="7"/>
+      <c r="G11" s="6"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="7"/>
+      <c r="G12" s="6"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="7"/>
+      <c r="G13" s="6"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="7"/>
+      <c r="G14" s="6"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="7"/>
+      <c r="G15" s="6"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="10"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1024,11 +986,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF02EF3E-496B-43E3-A0BD-53D57B7F10F6}">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="H18" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="H13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L32" sqref="L32"/>
+      <selection pane="bottomRight" activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1088,8 +1050,14 @@
       <c r="H3" s="2">
         <v>80</v>
       </c>
+      <c r="I3" s="2">
+        <v>75</v>
+      </c>
       <c r="L3" s="2">
         <v>75</v>
+      </c>
+      <c r="M3" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -1099,8 +1067,14 @@
       <c r="H4" s="2">
         <v>110</v>
       </c>
+      <c r="I4" s="2">
+        <v>113</v>
+      </c>
       <c r="L4" s="2">
         <v>83</v>
+      </c>
+      <c r="M4" s="2">
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -1110,8 +1084,14 @@
       <c r="H5" s="2">
         <v>49</v>
       </c>
+      <c r="I5" s="2">
+        <v>57</v>
+      </c>
       <c r="L5" s="2">
         <v>105</v>
+      </c>
+      <c r="M5" s="2">
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -1121,8 +1101,14 @@
       <c r="H6" s="2">
         <v>90</v>
       </c>
+      <c r="I6" s="2">
+        <v>90</v>
+      </c>
       <c r="L6" s="2">
         <v>112</v>
+      </c>
+      <c r="M6" s="2">
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -1132,8 +1118,14 @@
       <c r="H7" s="2">
         <v>111</v>
       </c>
+      <c r="I7" s="2">
+        <v>115</v>
+      </c>
       <c r="L7" s="2">
         <v>118</v>
+      </c>
+      <c r="M7" s="2">
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -1143,8 +1135,14 @@
       <c r="H8" s="2">
         <v>104</v>
       </c>
+      <c r="I8" s="2">
+        <v>102</v>
+      </c>
       <c r="L8" s="2">
         <v>128</v>
+      </c>
+      <c r="M8" s="2">
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -1154,8 +1152,14 @@
       <c r="H9" s="2">
         <v>112</v>
       </c>
+      <c r="I9" s="2">
+        <v>124</v>
+      </c>
       <c r="L9" s="2">
         <v>155</v>
+      </c>
+      <c r="M9" s="2">
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -1165,8 +1169,14 @@
       <c r="H10" s="2">
         <v>140</v>
       </c>
+      <c r="I10" s="2">
+        <v>142</v>
+      </c>
       <c r="L10" s="2">
         <v>162</v>
+      </c>
+      <c r="M10" s="2">
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -1176,8 +1186,14 @@
       <c r="H11" s="2">
         <v>159</v>
       </c>
+      <c r="I11" s="2">
+        <v>165</v>
+      </c>
       <c r="L11" s="2">
         <v>201</v>
+      </c>
+      <c r="M11" s="2">
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -1187,8 +1203,14 @@
       <c r="H12" s="2">
         <v>191</v>
       </c>
+      <c r="I12" s="2">
+        <v>186</v>
+      </c>
       <c r="L12" s="2">
         <v>212</v>
+      </c>
+      <c r="M12" s="2">
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -1198,8 +1220,14 @@
       <c r="H13" s="2">
         <v>211</v>
       </c>
+      <c r="I13" s="2">
+        <v>208</v>
+      </c>
       <c r="L13" s="2">
         <v>212</v>
+      </c>
+      <c r="M13" s="2">
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -1209,8 +1237,14 @@
       <c r="H14" s="2">
         <v>174</v>
       </c>
+      <c r="I14" s="2">
+        <v>207</v>
+      </c>
       <c r="L14" s="2">
         <v>212</v>
+      </c>
+      <c r="M14" s="2">
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -1220,8 +1254,14 @@
       <c r="H15" s="2">
         <v>293</v>
       </c>
+      <c r="I15" s="2">
+        <v>276</v>
+      </c>
       <c r="L15" s="2">
         <v>306</v>
+      </c>
+      <c r="M15" s="2">
+        <v>377</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
@@ -1231,77 +1271,119 @@
       <c r="H16" s="2">
         <v>711</v>
       </c>
+      <c r="I16" s="2">
+        <v>763</v>
+      </c>
       <c r="L16" s="2">
         <v>807</v>
       </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="2">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>22</v>
       </c>
       <c r="H17" s="2">
         <v>1164</v>
       </c>
+      <c r="I17" s="2">
+        <v>1186</v>
+      </c>
       <c r="L17" s="2">
         <v>1113</v>
       </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="2">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>59</v>
       </c>
       <c r="H19" s="2">
         <v>1290</v>
       </c>
+      <c r="I19" s="2">
+        <v>1346</v>
+      </c>
       <c r="L19" s="2">
         <v>1496</v>
       </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="2">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>21</v>
       </c>
       <c r="H20" s="2">
         <v>4494</v>
       </c>
+      <c r="I20" s="2">
+        <v>4539</v>
+      </c>
       <c r="L20" s="2">
         <v>4818</v>
       </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="2">
+        <v>4955</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>20</v>
       </c>
       <c r="H21" s="2">
         <v>5021</v>
       </c>
+      <c r="I21" s="2">
+        <v>3850</v>
+      </c>
       <c r="L21" s="2">
         <v>6461</v>
       </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="2">
+        <v>4692</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>19</v>
       </c>
       <c r="H22" s="2">
         <v>10854</v>
       </c>
+      <c r="I22" s="2">
+        <v>9781</v>
+      </c>
       <c r="L22" s="2">
         <v>12819</v>
       </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="2">
+        <v>11281</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>68</v>
       </c>
       <c r="H23" s="2">
         <v>4546</v>
       </c>
+      <c r="I23" s="2">
+        <v>3887</v>
+      </c>
       <c r="L23" s="2">
         <v>5680</v>
       </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="2">
+        <v>4247</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>67</v>
       </c>
@@ -1309,45 +1391,71 @@
         <f>+H22-H23</f>
         <v>6308</v>
       </c>
+      <c r="I24" s="2">
+        <f>+I22-I23</f>
+        <v>5894</v>
+      </c>
       <c r="L24" s="2">
         <f>+L22-L23</f>
         <v>7139</v>
       </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="2">
+        <f>+M22-M23</f>
+        <v>7034</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>66</v>
       </c>
       <c r="H25" s="2">
         <v>2964</v>
       </c>
+      <c r="I25" s="2">
+        <v>3015</v>
+      </c>
       <c r="L25" s="2">
         <v>3736</v>
       </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="2">
+        <v>3358</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>65</v>
       </c>
       <c r="H26" s="2">
         <v>1638</v>
       </c>
+      <c r="I26" s="2">
+        <v>1564</v>
+      </c>
       <c r="L26" s="2">
         <v>1928</v>
       </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="2">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>64</v>
       </c>
       <c r="H27" s="2">
         <v>783</v>
       </c>
+      <c r="I27" s="2">
+        <v>751</v>
+      </c>
       <c r="L27" s="2">
         <v>736</v>
       </c>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="2">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>63</v>
       </c>
@@ -1355,12 +1463,20 @@
         <f>+H25+H26+H27</f>
         <v>5385</v>
       </c>
+      <c r="I28" s="2">
+        <f>+I25+I26+I27</f>
+        <v>5330</v>
+      </c>
       <c r="L28" s="2">
         <f>+L25+L26+L27</f>
         <v>6400</v>
       </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="2">
+        <f>+M25+M26+M27</f>
+        <v>5655</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>62</v>
       </c>
@@ -1368,12 +1484,20 @@
         <f>+H24-H28</f>
         <v>923</v>
       </c>
+      <c r="I29" s="2">
+        <f>+I24-I28</f>
+        <v>564</v>
+      </c>
       <c r="L29" s="2">
         <f>+L24-L28</f>
         <v>739</v>
       </c>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="2">
+        <f>+M24-M28</f>
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>61</v>
       </c>
@@ -1386,7 +1510,7 @@
         <v>-201</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>60</v>
       </c>
@@ -1399,7 +1523,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>70</v>
       </c>

--- a/BAYN GY.xlsx
+++ b/BAYN GY.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6B0575-C0C4-4789-B679-F8A27E43AEEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431E6025-D680-4176-9110-CD011A3B3610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="1815" windowWidth="34260" windowHeight="17400" activeTab="1" xr2:uid="{4F5840C1-5FD8-4A3A-9BFB-E4B596159E87}"/>
+    <workbookView xWindow="17235" yWindow="705" windowWidth="36330" windowHeight="19935" activeTab="2" xr2:uid="{4F5840C1-5FD8-4A3A-9BFB-E4B596159E87}"/>
   </bookViews>
   <sheets>
-    <sheet name="Main" sheetId="1" r:id="rId1"/>
-    <sheet name="Model" sheetId="2" r:id="rId2"/>
+    <sheet name="Master" sheetId="3" r:id="rId1"/>
+    <sheet name="Main" sheetId="1" r:id="rId2"/>
+    <sheet name="Model" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="141">
   <si>
     <t>Price EUR</t>
   </si>
@@ -250,16 +251,243 @@
   </si>
   <si>
     <t>Taxes+MI</t>
+  </si>
+  <si>
+    <t>Q123</t>
+  </si>
+  <si>
+    <t>Q223</t>
+  </si>
+  <si>
+    <t>Q323</t>
+  </si>
+  <si>
+    <t>Q423</t>
+  </si>
+  <si>
+    <t>Rev y/y</t>
+  </si>
+  <si>
+    <t>Headcount</t>
+  </si>
+  <si>
+    <t>Kerendia</t>
+  </si>
+  <si>
+    <t>Adj rev y/y</t>
+  </si>
+  <si>
+    <t>CEO: Werner Baumann</t>
+  </si>
+  <si>
+    <t>AB-1005</t>
+  </si>
+  <si>
+    <t>Parkinson's</t>
+  </si>
+  <si>
+    <t>AAV2-GDNF</t>
+  </si>
+  <si>
+    <t>ACTUS-101</t>
+  </si>
+  <si>
+    <t>Pompe</t>
+  </si>
+  <si>
+    <t>AB-1002</t>
+  </si>
+  <si>
+    <t>CHF</t>
+  </si>
+  <si>
+    <t>MSA</t>
+  </si>
+  <si>
+    <t>bemdaneprocel</t>
+  </si>
+  <si>
+    <t>BV-101</t>
+  </si>
+  <si>
+    <t>Huntington's</t>
+  </si>
+  <si>
+    <t>gene therapy</t>
+  </si>
+  <si>
+    <t>LION-101</t>
+  </si>
+  <si>
+    <t>LGMD 2I/R9</t>
+  </si>
+  <si>
+    <t>adrenomedullin</t>
+  </si>
+  <si>
+    <t>ARDS</t>
+  </si>
+  <si>
+    <t>PEG-ADM</t>
+  </si>
+  <si>
+    <t>asundexian</t>
+  </si>
+  <si>
+    <t>MACE</t>
+  </si>
+  <si>
+    <t>FXIa inhibitor</t>
+  </si>
+  <si>
+    <t>gadoquatrane</t>
+  </si>
+  <si>
+    <t>MRI</t>
+  </si>
+  <si>
+    <t>contrast agent</t>
+  </si>
+  <si>
+    <t>BAY 2395840</t>
+  </si>
+  <si>
+    <t>BDKRB1 antagonist</t>
+  </si>
+  <si>
+    <t>Neuropathic pain</t>
+  </si>
+  <si>
+    <t>runcaciguat</t>
+  </si>
+  <si>
+    <t>sGC activator</t>
+  </si>
+  <si>
+    <t>CKD</t>
+  </si>
+  <si>
+    <t>zabedosertib</t>
+  </si>
+  <si>
+    <t>Atopic Dermatitis</t>
+  </si>
+  <si>
+    <t>IRAK4</t>
+  </si>
+  <si>
+    <t>Phase</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>copanlisib</t>
+  </si>
+  <si>
+    <t>NHL</t>
+  </si>
+  <si>
+    <t>PI3K</t>
+  </si>
+  <si>
+    <t>III</t>
+  </si>
+  <si>
+    <t>elinzanetant</t>
+  </si>
+  <si>
+    <t>Vasomotor Symptoms</t>
+  </si>
+  <si>
+    <t>NK1/3 antagonist</t>
+  </si>
+  <si>
+    <t>osocimab</t>
+  </si>
+  <si>
+    <t>Factor Xia antibody</t>
+  </si>
+  <si>
+    <t>fesomersen</t>
+  </si>
+  <si>
+    <t>pecavaptan</t>
+  </si>
+  <si>
+    <t>dual vasopressin receptor antagonist</t>
+  </si>
+  <si>
+    <t>TSK inhibitor</t>
+  </si>
+  <si>
+    <t>OSA</t>
+  </si>
+  <si>
+    <t>Adempas (vericiguat)</t>
+  </si>
+  <si>
+    <t>Vitrakvi (larotrectinib)</t>
+  </si>
+  <si>
+    <t>Nubeqa (darolutamide)?</t>
+  </si>
+  <si>
+    <t>Xofigo</t>
+  </si>
+  <si>
+    <t>expired</t>
+  </si>
+  <si>
+    <t>Verquvo</t>
+  </si>
+  <si>
+    <t>Jivi</t>
+  </si>
+  <si>
+    <t>Kerendia (finerenone)?</t>
+  </si>
+  <si>
+    <t>Other Pharma</t>
+  </si>
+  <si>
+    <t>CFFO</t>
+  </si>
+  <si>
+    <t>CapEx</t>
+  </si>
+  <si>
+    <t>FCF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -367,10 +595,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -401,8 +630,23 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -422,16 +666,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>20052</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>13483</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>60158</xdr:rowOff>
+      <xdr:rowOff>53589</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>20052</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>40106</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>13483</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>33537</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -446,8 +690,58 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7690184" y="60158"/>
-          <a:ext cx="0" cy="6878053"/>
+          <a:off x="9512207" y="53589"/>
+          <a:ext cx="0" cy="7041586"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>41073</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>41073</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>144172</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Straight Connector 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B39DC563-D692-4721-857C-4E89F7F4E7F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16259849" y="0"/>
+          <a:ext cx="0" cy="7205810"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -769,11 +1063,67 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{607F5219-5909-48F7-A24F-6732DEAB715F}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{661F4CEA-5786-4247-B512-B6CB2BA9A4B4}">
-  <dimension ref="B2:K16"/>
+  <dimension ref="B2:K33"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -781,8 +1131,9 @@
     <col min="1" max="1" width="2.140625" customWidth="1"/>
     <col min="2" max="2" width="25.140625" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
     <col min="9" max="9" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -808,8 +1159,8 @@
       <c r="I2" t="s">
         <v>0</v>
       </c>
-      <c r="J2">
-        <v>47.82</v>
+      <c r="J2" s="17">
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.2">
@@ -826,7 +1177,9 @@
         <v>43</v>
       </c>
       <c r="F3" s="12"/>
-      <c r="G3" s="13"/>
+      <c r="G3" s="13">
+        <v>2025</v>
+      </c>
       <c r="I3" t="s">
         <v>1</v>
       </c>
@@ -834,7 +1187,7 @@
         <v>982.42</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.2">
@@ -851,13 +1204,15 @@
         <v>50</v>
       </c>
       <c r="F4" s="12"/>
-      <c r="G4" s="13"/>
+      <c r="G4" s="13" t="s">
+        <v>133</v>
+      </c>
       <c r="I4" t="s">
         <v>2</v>
       </c>
       <c r="J4" s="1">
         <f>+J2*J3</f>
-        <v>46979.324399999998</v>
+        <v>52068.259999999995</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.2">
@@ -884,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
@@ -908,10 +1263,10 @@
         <v>4</v>
       </c>
       <c r="J6" s="1">
-        <v>35884</v>
+        <v>36077</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.2">
@@ -932,7 +1287,7 @@
       </c>
       <c r="J7" s="1">
         <f>+J4-J5+J6</f>
-        <v>82863.324399999998</v>
+        <v>88145.26</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
@@ -942,55 +1297,320 @@
       <c r="G8" s="6"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B9" s="5"/>
+      <c r="B9" s="5" t="s">
+        <v>131</v>
+      </c>
       <c r="G9" s="6"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B10" s="5"/>
+      <c r="B10" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="G10" s="6"/>
+      <c r="I10" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B11" s="5"/>
+      <c r="B11" s="5" t="s">
+        <v>129</v>
+      </c>
       <c r="G11" s="6"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B12" s="5"/>
+      <c r="B12" s="5" t="s">
+        <v>130</v>
+      </c>
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B13" s="5"/>
+      <c r="B13" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="G13" s="6"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B14" s="5"/>
+      <c r="B14" s="5" t="s">
+        <v>135</v>
+      </c>
       <c r="G14" s="6"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B15" s="5"/>
+      <c r="B15" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="G15" s="6"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="9"/>
+      <c r="B16" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B18" s="3"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G18" s="23"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B19" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="E19" s="24"/>
+      <c r="F19" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B20" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="E20" s="24"/>
+      <c r="F20" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B21" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" s="24"/>
+      <c r="F21" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B22" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B23" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="G23" s="6"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B24" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" s="24"/>
+      <c r="F24" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B25" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="G25" s="6"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B26" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" s="24"/>
+      <c r="F26" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="G26" s="6"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B27" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" s="24"/>
+      <c r="F27" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="G27" s="6"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B28" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="E28" s="24"/>
+      <c r="F28" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="G28" s="6"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B29" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="E29" s="24"/>
+      <c r="F29" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="G29" s="6"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B30" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="D30" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="E30" s="24"/>
+      <c r="F30" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="G30" s="6"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B31" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="D31" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="E31" s="24"/>
+      <c r="F31" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="G31" s="6"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B32" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="D32" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="E32" s="24"/>
+      <c r="F32" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="G32" s="6"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B33" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="G33" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF02EF3E-496B-43E3-A0BD-53D57B7F10F6}">
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:AG45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="H13" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="I9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M30" sqref="M30"/>
+      <selection pane="bottomRight" activeCell="Z43" sqref="Z43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1000,12 +1620,12 @@
     <col min="3" max="14" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
@@ -1042,514 +1662,1399 @@
       <c r="N2" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="V2">
+        <v>2018</v>
+      </c>
+      <c r="W2">
+        <f>+V2+1</f>
+        <v>2019</v>
+      </c>
+      <c r="X2">
+        <f t="shared" ref="X2:Z2" si="0">+W2+1</f>
+        <v>2020</v>
+      </c>
+      <c r="Y2">
+        <f t="shared" si="0"/>
+        <v>2021</v>
+      </c>
+      <c r="Z2">
+        <f t="shared" si="0"/>
+        <v>2022</v>
+      </c>
+      <c r="AA2">
+        <f>+Z2+1</f>
+        <v>2023</v>
+      </c>
+      <c r="AB2">
+        <f t="shared" ref="AB2:AG2" si="1">+AA2+1</f>
+        <v>2024</v>
+      </c>
+      <c r="AC2">
+        <f t="shared" si="1"/>
+        <v>2025</v>
+      </c>
+      <c r="AD2">
+        <f t="shared" si="1"/>
+        <v>2026</v>
+      </c>
+      <c r="AE2">
+        <f t="shared" si="1"/>
+        <v>2027</v>
+      </c>
+      <c r="AF2">
+        <f t="shared" si="1"/>
+        <v>2028</v>
+      </c>
+      <c r="AG2">
+        <f t="shared" si="1"/>
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K3" s="2">
+        <v>11</v>
+      </c>
+      <c r="O3" s="2">
+        <v>52</v>
+      </c>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="Z3" s="1">
+        <f>SUM(K3:N3)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="2">
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20">
         <v>80</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I4" s="20">
         <v>75</v>
       </c>
-      <c r="L3" s="2">
+      <c r="J4" s="20"/>
+      <c r="K4" s="20">
+        <v>83</v>
+      </c>
+      <c r="L4" s="20">
         <v>75</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M4" s="20">
         <v>76</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+      <c r="N4" s="20"/>
+      <c r="O4" s="1">
+        <v>57</v>
+      </c>
+      <c r="Z4" s="1">
+        <f t="shared" ref="Z4:Z23" si="2">SUM(K4:N4)</f>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="2">
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20">
         <v>110</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I5" s="20">
         <v>113</v>
       </c>
-      <c r="L4" s="2">
+      <c r="J5" s="20">
+        <v>91</v>
+      </c>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20">
         <v>83</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M5" s="20">
         <v>56</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+      <c r="N5" s="20">
+        <v>46</v>
+      </c>
+      <c r="Z5" s="1">
+        <f t="shared" si="2"/>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="2">
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20">
         <v>49</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I6" s="20">
         <v>57</v>
       </c>
-      <c r="L5" s="2">
+      <c r="J6" s="20">
+        <v>69</v>
+      </c>
+      <c r="K6" s="20">
+        <v>76</v>
+      </c>
+      <c r="L6" s="20">
         <v>105</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M6" s="20">
         <v>127</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+      <c r="N6" s="20">
+        <v>158</v>
+      </c>
+      <c r="O6" s="1">
+        <v>178</v>
+      </c>
+      <c r="Z6" s="1">
+        <f t="shared" si="2"/>
+        <v>466</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="2">
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20">
         <v>90</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I7" s="20">
         <v>90</v>
       </c>
-      <c r="L6" s="2">
+      <c r="J7" s="20">
+        <v>97</v>
+      </c>
+      <c r="K7" s="20">
+        <v>105</v>
+      </c>
+      <c r="L7" s="20">
         <v>112</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M7" s="20">
         <v>118</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+      <c r="N7" s="20">
+        <v>101</v>
+      </c>
+      <c r="O7" s="1">
+        <v>118</v>
+      </c>
+      <c r="Z7" s="1">
+        <f t="shared" si="2"/>
+        <v>436</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="2">
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20">
         <v>111</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I8" s="20">
         <v>115</v>
       </c>
-      <c r="L7" s="2">
+      <c r="J8" s="20">
+        <v>120</v>
+      </c>
+      <c r="K8" s="20">
+        <v>117</v>
+      </c>
+      <c r="L8" s="20">
         <v>118</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M8" s="20">
         <v>120</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
+      <c r="N8" s="20">
+        <v>139</v>
+      </c>
+      <c r="O8" s="1">
+        <v>124</v>
+      </c>
+      <c r="Z8" s="1">
+        <f t="shared" si="2"/>
+        <v>494</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="2">
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20">
         <v>104</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I9" s="20">
         <v>102</v>
       </c>
-      <c r="L8" s="2">
+      <c r="J9" s="20">
+        <v>112</v>
+      </c>
+      <c r="K9" s="20">
+        <v>108</v>
+      </c>
+      <c r="L9" s="20">
         <v>128</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M9" s="20">
         <v>127</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
+      <c r="N9" s="20">
+        <v>106</v>
+      </c>
+      <c r="O9" s="1">
+        <v>118</v>
+      </c>
+      <c r="Z9" s="1">
+        <f t="shared" si="2"/>
+        <v>469</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="2">
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20">
         <v>112</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I10" s="20">
         <v>124</v>
       </c>
-      <c r="L9" s="2">
+      <c r="J10" s="20">
+        <v>120</v>
+      </c>
+      <c r="K10" s="20">
+        <v>144</v>
+      </c>
+      <c r="L10" s="20">
         <v>155</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M10" s="20">
         <v>159</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
+      <c r="N10" s="20">
+        <v>155</v>
+      </c>
+      <c r="O10" s="1">
+        <v>133</v>
+      </c>
+      <c r="Z10" s="1">
+        <f t="shared" si="2"/>
+        <v>613</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="2">
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20">
         <v>140</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I11" s="20">
         <v>142</v>
       </c>
-      <c r="L10" s="2">
+      <c r="J11" s="20">
+        <v>328</v>
+      </c>
+      <c r="K11" s="20">
+        <v>153</v>
+      </c>
+      <c r="L11" s="20">
         <v>162</v>
       </c>
-      <c r="M10" s="2">
+      <c r="M11" s="20">
         <v>168</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
+      <c r="N11" s="20">
+        <v>169</v>
+      </c>
+      <c r="O11" s="1">
+        <v>152</v>
+      </c>
+      <c r="Z11" s="1">
+        <f t="shared" si="2"/>
+        <v>652</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="2">
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20">
         <v>159</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I12" s="20">
         <v>165</v>
       </c>
-      <c r="L11" s="2">
+      <c r="J12" s="20">
+        <v>170</v>
+      </c>
+      <c r="K12" s="20">
+        <v>187</v>
+      </c>
+      <c r="L12" s="20">
         <v>201</v>
       </c>
-      <c r="M11" s="2">
+      <c r="M12" s="20">
         <v>199</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
+      <c r="N12" s="20">
+        <v>201</v>
+      </c>
+      <c r="O12" s="1">
+        <v>181</v>
+      </c>
+      <c r="Z12" s="1">
+        <f t="shared" si="2"/>
+        <v>788</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="2">
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20">
         <v>191</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I13" s="20">
         <v>186</v>
       </c>
-      <c r="L12" s="2">
+      <c r="J13" s="20">
+        <v>178</v>
+      </c>
+      <c r="K13" s="20">
+        <v>198</v>
+      </c>
+      <c r="L13" s="20">
         <v>212</v>
       </c>
-      <c r="M12" s="2">
+      <c r="M13" s="20">
         <v>196</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
+      <c r="N13" s="20">
+        <v>184</v>
+      </c>
+      <c r="O13" s="1">
+        <v>152</v>
+      </c>
+      <c r="Z13" s="1">
+        <f t="shared" si="2"/>
+        <v>790</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H13" s="2">
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20">
         <v>211</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I14" s="20">
         <v>208</v>
       </c>
-      <c r="L13" s="2">
+      <c r="J14" s="20">
+        <v>219</v>
+      </c>
+      <c r="K14" s="20">
+        <v>208</v>
+      </c>
+      <c r="L14" s="20">
         <v>212</v>
       </c>
-      <c r="M13" s="2">
+      <c r="M14" s="20">
         <v>221</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
+      <c r="N14" s="20">
+        <v>206</v>
+      </c>
+      <c r="O14" s="1">
+        <v>192</v>
+      </c>
+      <c r="Z14" s="1">
+        <f t="shared" si="2"/>
+        <v>847</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H14" s="2">
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20">
         <v>174</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I15" s="20">
         <v>207</v>
       </c>
-      <c r="L14" s="2">
+      <c r="J15" s="20">
+        <v>207</v>
+      </c>
+      <c r="K15" s="20">
+        <v>239</v>
+      </c>
+      <c r="L15" s="20">
         <v>212</v>
       </c>
-      <c r="M14" s="2">
+      <c r="M15" s="20">
         <v>232</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
+      <c r="N15" s="20">
+        <v>148</v>
+      </c>
+      <c r="O15" s="1">
+        <v>177</v>
+      </c>
+      <c r="Z15" s="1">
+        <f t="shared" si="2"/>
+        <v>831</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="2">
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20">
         <v>293</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I16" s="20">
         <v>276</v>
       </c>
-      <c r="L15" s="2">
+      <c r="J16" s="20">
+        <v>282</v>
+      </c>
+      <c r="K16" s="20">
+        <v>295</v>
+      </c>
+      <c r="L16" s="20">
         <v>306</v>
       </c>
-      <c r="M15" s="2">
+      <c r="M16" s="20">
         <v>377</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
+      <c r="N16" s="20">
+        <v>299</v>
+      </c>
+      <c r="O16" s="1">
+        <v>303</v>
+      </c>
+      <c r="Z16" s="1">
+        <f t="shared" si="2"/>
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="17" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H16" s="2">
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20">
         <v>711</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I17" s="20">
         <v>763</v>
       </c>
-      <c r="L16" s="2">
+      <c r="J17" s="20">
+        <v>773</v>
+      </c>
+      <c r="K17" s="20">
+        <v>774</v>
+      </c>
+      <c r="L17" s="20">
         <v>807</v>
       </c>
-      <c r="M16" s="2">
+      <c r="M17" s="20">
         <v>811</v>
       </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
+      <c r="N17" s="20">
+        <v>821</v>
+      </c>
+      <c r="O17" s="1">
+        <v>789</v>
+      </c>
+      <c r="Z17" s="1">
+        <f t="shared" si="2"/>
+        <v>3213</v>
+      </c>
+    </row>
+    <row r="18" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="2">
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20">
         <v>1164</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I18" s="20">
         <v>1186</v>
       </c>
-      <c r="L17" s="2">
+      <c r="J18" s="20">
+        <v>1247</v>
+      </c>
+      <c r="K18" s="20">
+        <v>1087</v>
+      </c>
+      <c r="L18" s="20">
         <v>1113</v>
       </c>
-      <c r="M17" s="2">
+      <c r="M18" s="20">
         <v>1112</v>
       </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
+      <c r="N18" s="20">
+        <v>1204</v>
+      </c>
+      <c r="O18" s="20">
+        <v>943</v>
+      </c>
+      <c r="Z18" s="1">
+        <f t="shared" si="2"/>
+        <v>4516</v>
+      </c>
+    </row>
+    <row r="19" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20">
+        <f>I22-SUM(I3:I18)</f>
+        <v>730</v>
+      </c>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20">
+        <f>K22-SUM(K3:K18)</f>
+        <v>839</v>
+      </c>
+      <c r="L19" s="20">
+        <f>L22-SUM(L3:L18)</f>
+        <v>817</v>
+      </c>
+      <c r="M19" s="20">
+        <f>M22-SUM(M3:M18)</f>
+        <v>856</v>
+      </c>
+      <c r="N19" s="20">
+        <f>N22-SUM(N3:N18)</f>
+        <v>918</v>
+      </c>
+      <c r="O19" s="20">
+        <f>O22-SUM(O3:O18)</f>
+        <v>738</v>
+      </c>
+    </row>
+    <row r="20" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+    </row>
+    <row r="21" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H19" s="2">
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20">
         <v>1290</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I21" s="20">
         <v>1346</v>
       </c>
-      <c r="L19" s="2">
+      <c r="J21" s="20">
+        <v>1405</v>
+      </c>
+      <c r="K21" s="20">
+        <v>1512</v>
+      </c>
+      <c r="L21" s="20">
         <v>1496</v>
       </c>
-      <c r="M19" s="2">
+      <c r="M21" s="20">
         <v>1548</v>
       </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
+      <c r="N21" s="20">
+        <v>1524</v>
+      </c>
+      <c r="O21" s="1">
+        <v>1573</v>
+      </c>
+      <c r="Z21" s="1">
+        <f t="shared" si="2"/>
+        <v>6080</v>
+      </c>
+    </row>
+    <row r="22" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H20" s="2">
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20">
         <v>4494</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I22" s="20">
         <v>4539</v>
       </c>
-      <c r="L20" s="2">
+      <c r="J22" s="20">
+        <v>4951</v>
+      </c>
+      <c r="K22" s="20">
+        <v>4624</v>
+      </c>
+      <c r="L22" s="20">
         <v>4818</v>
       </c>
-      <c r="M20" s="2">
+      <c r="M22" s="20">
         <v>4955</v>
       </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
+      <c r="N22" s="20">
+        <f>19252-M22-L22-K22</f>
+        <v>4855</v>
+      </c>
+      <c r="O22" s="1">
+        <v>4407</v>
+      </c>
+      <c r="Z22" s="1">
+        <f t="shared" si="2"/>
+        <v>19252</v>
+      </c>
+    </row>
+    <row r="23" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H21" s="2">
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20">
         <v>5021</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I23" s="20">
         <v>3850</v>
       </c>
-      <c r="L21" s="2">
+      <c r="J23" s="20">
+        <v>4690</v>
+      </c>
+      <c r="K23" s="20">
+        <v>8447</v>
+      </c>
+      <c r="L23" s="20">
         <v>6461</v>
       </c>
-      <c r="M21" s="2">
+      <c r="M23" s="20">
         <v>4692</v>
       </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
+      <c r="N23" s="20">
+        <f>25169-M23-L23-K23</f>
+        <v>5569</v>
+      </c>
+      <c r="O23" s="1">
+        <v>8351</v>
+      </c>
+      <c r="Z23" s="1">
+        <f t="shared" si="2"/>
+        <v>25169</v>
+      </c>
+    </row>
+    <row r="24" spans="2:26" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="H22" s="2">
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22">
         <v>10854</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I24" s="22">
         <v>9781</v>
       </c>
-      <c r="L22" s="2">
+      <c r="J24" s="21">
+        <f>SUM(J21:J23)</f>
+        <v>11046</v>
+      </c>
+      <c r="K24" s="22">
+        <v>14639</v>
+      </c>
+      <c r="L24" s="22">
         <v>12819</v>
       </c>
-      <c r="M22" s="2">
+      <c r="M24" s="22">
         <v>11281</v>
       </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
+      <c r="N24" s="21">
+        <f>SUM(N21:N23)</f>
+        <v>11948</v>
+      </c>
+      <c r="O24" s="21">
+        <v>14389</v>
+      </c>
+      <c r="V24" s="21">
+        <v>36742</v>
+      </c>
+      <c r="W24" s="21">
+        <v>43545</v>
+      </c>
+      <c r="X24" s="21">
+        <v>41400</v>
+      </c>
+      <c r="Y24" s="21">
+        <v>44081</v>
+      </c>
+      <c r="Z24" s="21">
+        <f>SUM(Z21:Z23)</f>
+        <v>50501</v>
+      </c>
+    </row>
+    <row r="25" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H23" s="2">
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20">
         <v>4546</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I25" s="20">
         <v>3887</v>
       </c>
-      <c r="L23" s="2">
+      <c r="J25" s="20"/>
+      <c r="K25" s="1">
+        <v>5176</v>
+      </c>
+      <c r="L25" s="20">
         <v>5680</v>
       </c>
-      <c r="M23" s="2">
+      <c r="M25" s="20">
         <v>4247</v>
       </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
+      <c r="N25" s="20"/>
+      <c r="O25" s="1">
+        <v>5733</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>16816</v>
+      </c>
+      <c r="Z25" s="1">
+        <v>19871</v>
+      </c>
+    </row>
+    <row r="26" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H24" s="2">
-        <f>+H22-H23</f>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20">
+        <f>+H24-H25</f>
         <v>6308</v>
       </c>
-      <c r="I24" s="2">
-        <f>+I22-I23</f>
+      <c r="I26" s="20">
+        <f>+I24-I25</f>
         <v>5894</v>
       </c>
-      <c r="L24" s="2">
-        <f>+L22-L23</f>
+      <c r="J26" s="20"/>
+      <c r="K26" s="1">
+        <f>+K24-K25</f>
+        <v>9463</v>
+      </c>
+      <c r="L26" s="20">
+        <f>+L24-L25</f>
         <v>7139</v>
       </c>
-      <c r="M24" s="2">
-        <f>+M22-M23</f>
+      <c r="M26" s="20">
+        <f>+M24-M25</f>
         <v>7034</v>
       </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
+      <c r="N26" s="20"/>
+      <c r="O26" s="1">
+        <f>+O24-O25</f>
+        <v>8656</v>
+      </c>
+      <c r="Y26" s="1">
+        <f>+Y24-Y25</f>
+        <v>27265</v>
+      </c>
+      <c r="Z26" s="1">
+        <f>+Z24-Z25</f>
+        <v>30630</v>
+      </c>
+    </row>
+    <row r="27" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H25" s="2">
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20">
         <v>2964</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I27" s="20">
         <v>3015</v>
       </c>
-      <c r="L25" s="2">
+      <c r="J27" s="20"/>
+      <c r="K27" s="20">
+        <v>3284</v>
+      </c>
+      <c r="L27" s="20">
         <v>3736</v>
       </c>
-      <c r="M25" s="2">
+      <c r="M27" s="20">
         <v>3358</v>
       </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
+      <c r="N27" s="20"/>
+      <c r="O27" s="1">
+        <v>3394</v>
+      </c>
+      <c r="Y27" s="1">
+        <v>12363</v>
+      </c>
+      <c r="Z27" s="1">
+        <v>14084</v>
+      </c>
+    </row>
+    <row r="28" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H26" s="2">
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20">
         <v>1638</v>
       </c>
-      <c r="I26" s="2">
+      <c r="I28" s="20">
         <v>1564</v>
       </c>
-      <c r="L26" s="2">
+      <c r="J28" s="20"/>
+      <c r="K28" s="20">
+        <v>1454</v>
+      </c>
+      <c r="L28" s="20">
         <v>1928</v>
       </c>
-      <c r="M26" s="2">
+      <c r="M28" s="20">
         <v>1576</v>
       </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
+      <c r="N28" s="20"/>
+      <c r="O28" s="1">
+        <v>1571</v>
+      </c>
+      <c r="Y28" s="1">
+        <v>5412</v>
+      </c>
+      <c r="Z28" s="1">
+        <v>6572</v>
+      </c>
+    </row>
+    <row r="29" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H27" s="2">
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20">
         <v>783</v>
       </c>
-      <c r="I27" s="2">
+      <c r="I29" s="20">
         <v>751</v>
       </c>
-      <c r="L27" s="2">
+      <c r="J29" s="20"/>
+      <c r="K29" s="20">
+        <v>661</v>
+      </c>
+      <c r="L29" s="20">
         <v>736</v>
       </c>
-      <c r="M27" s="2">
+      <c r="M29" s="20">
         <v>721</v>
       </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
+      <c r="N29" s="20"/>
+      <c r="O29" s="1">
+        <v>658</v>
+      </c>
+      <c r="Y29" s="1">
+        <v>2962</v>
+      </c>
+      <c r="Z29" s="1">
+        <v>2838</v>
+      </c>
+    </row>
+    <row r="30" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H28" s="2">
-        <f>+H25+H26+H27</f>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20">
+        <f>+H27+H28+H29</f>
         <v>5385</v>
       </c>
-      <c r="I28" s="2">
-        <f>+I25+I26+I27</f>
+      <c r="I30" s="20">
+        <f>+I27+I28+I29</f>
         <v>5330</v>
       </c>
-      <c r="L28" s="2">
-        <f>+L25+L26+L27</f>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20">
+        <f>+K27+K28+K29</f>
+        <v>5399</v>
+      </c>
+      <c r="L30" s="20">
+        <f>+L27+L28+L29</f>
         <v>6400</v>
       </c>
-      <c r="M28" s="2">
-        <f>+M25+M26+M27</f>
+      <c r="M30" s="20">
+        <f>+M27+M28+M29</f>
         <v>5655</v>
       </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
+      <c r="N30" s="20"/>
+      <c r="O30" s="20">
+        <f>+O27+O28+O29</f>
+        <v>5623</v>
+      </c>
+      <c r="Y30" s="1">
+        <f>+Y27+Y28+Y29</f>
+        <v>20737</v>
+      </c>
+      <c r="Z30" s="1">
+        <f>+Z27+Z28+Z29</f>
+        <v>23494</v>
+      </c>
+    </row>
+    <row r="31" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H29" s="2">
-        <f>+H24-H28</f>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20">
+        <f>+H26-H30</f>
         <v>923</v>
       </c>
-      <c r="I29" s="2">
-        <f>+I24-I28</f>
+      <c r="I31" s="20">
+        <f>+I26-I30</f>
         <v>564</v>
       </c>
-      <c r="L29" s="2">
-        <f>+L24-L28</f>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20">
+        <f>+K26-K30</f>
+        <v>4064</v>
+      </c>
+      <c r="L31" s="20">
+        <f>+L26-L30</f>
         <v>739</v>
       </c>
-      <c r="M29" s="2">
-        <f>+M24-M28</f>
+      <c r="M31" s="20">
+        <f>+M26-M30</f>
         <v>1379</v>
       </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
+      <c r="N31" s="20"/>
+      <c r="O31" s="20">
+        <f>+O26-O30</f>
+        <v>3033</v>
+      </c>
+      <c r="Y31" s="1">
+        <f>+Y26-Y30</f>
+        <v>6528</v>
+      </c>
+      <c r="Z31" s="1">
+        <f>+Z26-Z30</f>
+        <v>7136</v>
+      </c>
+    </row>
+    <row r="32" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H30" s="2">
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20">
         <f>50-703</f>
         <v>-653</v>
       </c>
-      <c r="L30" s="2">
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20">
+        <f>509-361+67-537</f>
+        <v>-322</v>
+      </c>
+      <c r="L32" s="20">
         <f>274-475</f>
         <v>-201</v>
       </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
+      <c r="M32" s="20"/>
+      <c r="N32" s="20"/>
+      <c r="O32" s="1">
+        <f>384-444+148-478</f>
+        <v>-390</v>
+      </c>
+      <c r="Y32" s="1">
+        <f>1500-4675+526-1882</f>
+        <v>-4531</v>
+      </c>
+      <c r="Z32" s="1">
+        <f>3039-3401+450-2642</f>
+        <v>-2554</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H31" s="2">
-        <f>+H29+H30</f>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20">
+        <f>+H31+H32</f>
         <v>270</v>
       </c>
-      <c r="L31" s="2">
-        <f>+L29+L30</f>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20">
+        <f>+K31+K32</f>
+        <v>3742</v>
+      </c>
+      <c r="L33" s="20">
+        <f>+L31+L32</f>
         <v>538</v>
       </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
+      <c r="M33" s="20">
+        <f>+M31+M32</f>
+        <v>1379</v>
+      </c>
+      <c r="N33" s="20"/>
+      <c r="O33" s="20">
+        <f>+O31+O32</f>
+        <v>2643</v>
+      </c>
+      <c r="Y33" s="1">
+        <f>+Y31+Y32</f>
+        <v>1997</v>
+      </c>
+      <c r="Z33" s="1">
+        <f>+Z31+Z32</f>
+        <v>4582</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H32" s="2">
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20">
         <f>234+9</f>
         <v>243</v>
       </c>
-      <c r="L32" s="2">
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20">
+        <f>428+3</f>
+        <v>431</v>
+      </c>
+      <c r="L34" s="20">
         <f>52+7</f>
         <v>59</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
+      <c r="M34" s="20"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="1">
+        <f>424+4</f>
+        <v>428</v>
+      </c>
+      <c r="Y34" s="1">
+        <v>1024</v>
+      </c>
+      <c r="Z34" s="1">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H33" s="2">
-        <f>+H31-H32</f>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20">
+        <f>+H33-H34</f>
         <v>27</v>
       </c>
-      <c r="L33" s="2">
-        <f>+L31-L32</f>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="20">
+        <f t="shared" ref="K35" si="3">+K33-K34</f>
+        <v>3311</v>
+      </c>
+      <c r="L35" s="20">
+        <f>+L33-L34</f>
         <v>479</v>
       </c>
+      <c r="M35" s="20">
+        <f t="shared" ref="M35:O35" si="4">+M33-M34</f>
+        <v>1379</v>
+      </c>
+      <c r="N35" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O35" s="20">
+        <f t="shared" si="4"/>
+        <v>2215</v>
+      </c>
+      <c r="Y35" s="1">
+        <f>+Y33-Y34</f>
+        <v>973</v>
+      </c>
+      <c r="Z35" s="1">
+        <f>+Z33-Z34</f>
+        <v>4078</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>75</v>
+      </c>
+      <c r="O37" s="19">
+        <f>O24/K24-1</f>
+        <v>-1.707766923970222E-2</v>
+      </c>
+      <c r="W37" s="18">
+        <f>+W24/V24-1</f>
+        <v>0.18515595231615056</v>
+      </c>
+      <c r="X37" s="18">
+        <f>+X24/W24-1</f>
+        <v>-4.9259386841198793E-2</v>
+      </c>
+      <c r="Y37" s="18">
+        <f>+Y24/X24-1</f>
+        <v>6.4758454106280228E-2</v>
+      </c>
+      <c r="Z37" s="18">
+        <f>+Z24/Y24-1</f>
+        <v>0.14564097910664464</v>
+      </c>
+    </row>
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>78</v>
+      </c>
+      <c r="O38" s="19">
+        <v>-1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y41" s="1">
+        <v>5089</v>
+      </c>
+      <c r="Z41" s="1">
+        <v>7093</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y42" s="1">
+        <v>2611</v>
+      </c>
+      <c r="Z42" s="1">
+        <v>2949</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y43" s="1">
+        <f>+Y41-Y42</f>
+        <v>2478</v>
+      </c>
+      <c r="Z43" s="1">
+        <f>+Z41-Z42</f>
+        <v>4144</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>76</v>
+      </c>
+      <c r="K45" s="1">
+        <v>100753</v>
+      </c>
+      <c r="L45" s="20"/>
+      <c r="M45" s="20"/>
+      <c r="N45" s="20"/>
+      <c r="O45" s="1">
+        <v>101735</v>
+      </c>
+      <c r="V45" s="1">
+        <v>107894</v>
+      </c>
+      <c r="W45" s="1">
+        <v>103824</v>
+      </c>
+      <c r="X45" s="1">
+        <v>99538</v>
+      </c>
+      <c r="Y45" s="1">
+        <v>99637</v>
+      </c>
+      <c r="Z45" s="1">
+        <v>101369</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{EDA2D8C8-A192-47FB-B41A-72E6F6F90C6D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/BAYN GY.xlsx
+++ b/BAYN GY.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431E6025-D680-4176-9110-CD011A3B3610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EAE8FB4-6EBB-495E-A40D-87B8DAD03ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17235" yWindow="705" windowWidth="36330" windowHeight="19935" activeTab="2" xr2:uid="{4F5840C1-5FD8-4A3A-9BFB-E4B596159E87}"/>
+    <workbookView xWindow="-42975" yWindow="2265" windowWidth="32220" windowHeight="15480" activeTab="2" xr2:uid="{4F5840C1-5FD8-4A3A-9BFB-E4B596159E87}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="145">
   <si>
     <t>Price EUR</t>
   </si>
@@ -461,14 +461,26 @@
   </si>
   <si>
     <t>FCF</t>
+  </si>
+  <si>
+    <t>Q124</t>
+  </si>
+  <si>
+    <t>Q224</t>
+  </si>
+  <si>
+    <t>Q324</t>
+  </si>
+  <si>
+    <t>Q424</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -599,7 +611,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -633,7 +645,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -642,15 +654,15 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{D51DD8DE-C08E-43FB-B943-E37C425DD0D4}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -716,13 +728,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>41073</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>41073</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>144172</xdr:rowOff>
@@ -768,9 +780,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -808,7 +820,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -914,7 +926,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1056,7 +1068,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1123,7 +1135,7 @@
   <dimension ref="B2:K33"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1160,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="17">
-        <v>53</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.2">
@@ -1187,7 +1199,7 @@
         <v>982.42</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>71</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.2">
@@ -1212,7 +1224,7 @@
       </c>
       <c r="J4" s="1">
         <f>+J2*J3</f>
-        <v>52068.259999999995</v>
+        <v>27370.2212</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.2">
@@ -1239,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>71</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
@@ -1263,10 +1275,10 @@
         <v>4</v>
       </c>
       <c r="J6" s="1">
-        <v>36077</v>
+        <v>36760</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>71</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.2">
@@ -1287,7 +1299,7 @@
       </c>
       <c r="J7" s="1">
         <f>+J4-J5+J6</f>
-        <v>88145.26</v>
+        <v>64130.2212</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
@@ -1367,14 +1379,13 @@
       <c r="B19" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" t="s">
         <v>116</v>
       </c>
-      <c r="D19" s="24" t="s">
+      <c r="D19" t="s">
         <v>117</v>
       </c>
-      <c r="E19" s="24"/>
-      <c r="F19" s="25" t="s">
+      <c r="F19" t="s">
         <v>118</v>
       </c>
       <c r="G19" s="6"/>
@@ -1383,14 +1394,13 @@
       <c r="B20" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" t="s">
         <v>120</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D20" t="s">
         <v>121</v>
       </c>
-      <c r="E20" s="24"/>
-      <c r="F20" s="25" t="s">
+      <c r="F20" t="s">
         <v>118</v>
       </c>
       <c r="G20" s="6"/>
@@ -1399,14 +1409,13 @@
       <c r="B21" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" t="s">
         <v>81</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="D21" t="s">
         <v>82</v>
       </c>
-      <c r="E21" s="24"/>
-      <c r="F21" s="25" t="s">
+      <c r="F21" t="s">
         <v>113</v>
       </c>
       <c r="G21" s="6"/>
@@ -1415,12 +1424,10 @@
       <c r="B22" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" t="s">
         <v>84</v>
       </c>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24" t="s">
+      <c r="F22" t="s">
         <v>113</v>
       </c>
       <c r="G22" s="6"/>
@@ -1429,12 +1436,10 @@
       <c r="B23" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" t="s">
         <v>86</v>
       </c>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="25" t="s">
+      <c r="F23" t="s">
         <v>113</v>
       </c>
       <c r="G23" s="6"/>
@@ -1443,14 +1448,13 @@
       <c r="B24" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C24" t="s">
         <v>87</v>
       </c>
-      <c r="D24" s="24" t="s">
+      <c r="D24" t="s">
         <v>82</v>
       </c>
-      <c r="E24" s="24"/>
-      <c r="F24" s="25" t="s">
+      <c r="F24" t="s">
         <v>113</v>
       </c>
       <c r="G24" s="6"/>
@@ -1459,12 +1463,10 @@
       <c r="B25" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="C25" t="s">
         <v>81</v>
       </c>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="25" t="s">
+      <c r="F25" t="s">
         <v>113</v>
       </c>
       <c r="G25" s="6"/>
@@ -1473,14 +1475,13 @@
       <c r="B26" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="C26" t="s">
         <v>90</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="D26" t="s">
         <v>91</v>
       </c>
-      <c r="E26" s="24"/>
-      <c r="F26" s="25" t="s">
+      <c r="F26" t="s">
         <v>113</v>
       </c>
       <c r="G26" s="6"/>
@@ -1489,14 +1490,13 @@
       <c r="B27" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="C27" t="s">
         <v>93</v>
       </c>
-      <c r="D27" s="24" t="s">
+      <c r="D27" t="s">
         <v>91</v>
       </c>
-      <c r="E27" s="24"/>
-      <c r="F27" s="25" t="s">
+      <c r="F27" t="s">
         <v>113</v>
       </c>
       <c r="G27" s="6"/>
@@ -1505,14 +1505,13 @@
       <c r="B28" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C28" t="s">
         <v>95</v>
       </c>
-      <c r="D28" s="25" t="s">
+      <c r="D28" t="s">
         <v>96</v>
       </c>
-      <c r="E28" s="24"/>
-      <c r="F28" s="25" t="s">
+      <c r="F28" t="s">
         <v>113</v>
       </c>
       <c r="G28" s="6"/>
@@ -1521,14 +1520,13 @@
       <c r="B29" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="C29" t="s">
         <v>98</v>
       </c>
-      <c r="D29" s="25" t="s">
+      <c r="D29" t="s">
         <v>99</v>
       </c>
-      <c r="E29" s="24"/>
-      <c r="F29" s="25" t="s">
+      <c r="F29" t="s">
         <v>114</v>
       </c>
       <c r="G29" s="6"/>
@@ -1537,14 +1535,13 @@
       <c r="B30" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="C30" t="s">
         <v>101</v>
       </c>
-      <c r="D30" s="25" t="s">
+      <c r="D30" t="s">
         <v>102</v>
       </c>
-      <c r="E30" s="24"/>
-      <c r="F30" s="25" t="s">
+      <c r="F30" t="s">
         <v>114</v>
       </c>
       <c r="G30" s="6"/>
@@ -1553,14 +1550,13 @@
       <c r="B31" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C31" s="25" t="s">
+      <c r="C31" t="s">
         <v>105</v>
       </c>
-      <c r="D31" s="25" t="s">
+      <c r="D31" t="s">
         <v>104</v>
       </c>
-      <c r="E31" s="24"/>
-      <c r="F31" s="25" t="s">
+      <c r="F31" t="s">
         <v>114</v>
       </c>
       <c r="G31" s="6"/>
@@ -1569,14 +1565,13 @@
       <c r="B32" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C32" s="25" t="s">
+      <c r="C32" t="s">
         <v>108</v>
       </c>
-      <c r="D32" s="25" t="s">
+      <c r="D32" t="s">
         <v>107</v>
       </c>
-      <c r="E32" s="24"/>
-      <c r="F32" s="25" t="s">
+      <c r="F32" t="s">
         <v>114</v>
       </c>
       <c r="G32" s="6"/>
@@ -1604,13 +1599,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF02EF3E-496B-43E3-A0BD-53D57B7F10F6}">
-  <dimension ref="A1:AG45"/>
+  <dimension ref="A1:AJ45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="I9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Z43" sqref="Z43"/>
+      <selection pane="bottomRight" activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1620,12 +1615,12 @@
     <col min="3" max="14" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
@@ -1674,55 +1669,67 @@
       <c r="R2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="V2">
+      <c r="S2" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y2">
         <v>2018</v>
       </c>
-      <c r="W2">
-        <f>+V2+1</f>
+      <c r="Z2">
+        <f>+Y2+1</f>
         <v>2019</v>
       </c>
-      <c r="X2">
-        <f t="shared" ref="X2:Z2" si="0">+W2+1</f>
+      <c r="AA2">
+        <f t="shared" ref="AA2:AC2" si="0">+Z2+1</f>
         <v>2020</v>
       </c>
-      <c r="Y2">
+      <c r="AB2">
         <f t="shared" si="0"/>
         <v>2021</v>
       </c>
-      <c r="Z2">
+      <c r="AC2">
         <f t="shared" si="0"/>
         <v>2022</v>
       </c>
-      <c r="AA2">
-        <f>+Z2+1</f>
+      <c r="AD2">
+        <f>+AC2+1</f>
         <v>2023</v>
       </c>
-      <c r="AB2">
-        <f t="shared" ref="AB2:AG2" si="1">+AA2+1</f>
+      <c r="AE2">
+        <f t="shared" ref="AE2:AJ2" si="1">+AD2+1</f>
         <v>2024</v>
       </c>
-      <c r="AC2">
+      <c r="AF2">
         <f t="shared" si="1"/>
         <v>2025</v>
       </c>
-      <c r="AD2">
+      <c r="AG2">
         <f t="shared" si="1"/>
         <v>2026</v>
       </c>
-      <c r="AE2">
+      <c r="AH2">
         <f t="shared" si="1"/>
         <v>2027</v>
       </c>
-      <c r="AF2">
+      <c r="AI2">
         <f t="shared" si="1"/>
         <v>2028</v>
       </c>
-      <c r="AG2">
+      <c r="AJ2">
         <f t="shared" si="1"/>
         <v>2029</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>77</v>
       </c>
@@ -1732,15 +1739,22 @@
       <c r="O3" s="2">
         <v>52</v>
       </c>
-      <c r="P3" s="2"/>
+      <c r="P3" s="2">
+        <v>67</v>
+      </c>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
-      <c r="Z3" s="1">
+      <c r="S3" s="2"/>
+      <c r="T3" s="2">
+        <v>115</v>
+      </c>
+      <c r="U3" s="2"/>
+      <c r="AC3" s="1">
         <f>SUM(K3:N3)</f>
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>36</v>
       </c>
@@ -1769,12 +1783,12 @@
       <c r="O4" s="1">
         <v>57</v>
       </c>
-      <c r="Z4" s="1">
-        <f t="shared" ref="Z4:Z23" si="2">SUM(K4:N4)</f>
+      <c r="AC4" s="1">
+        <f t="shared" ref="AC4:AC23" si="2">SUM(K4:N4)</f>
         <v>234</v>
       </c>
     </row>
-    <row r="5" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>35</v>
       </c>
@@ -1802,12 +1816,12 @@
       <c r="N5" s="20">
         <v>46</v>
       </c>
-      <c r="Z5" s="1">
+      <c r="AC5" s="1">
         <f t="shared" si="2"/>
         <v>185</v>
       </c>
     </row>
-    <row r="6" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>34</v>
       </c>
@@ -1840,12 +1854,18 @@
       <c r="O6" s="1">
         <v>178</v>
       </c>
-      <c r="Z6" s="1">
+      <c r="P6" s="1">
+        <v>201</v>
+      </c>
+      <c r="T6" s="1">
+        <v>380</v>
+      </c>
+      <c r="AC6" s="1">
         <f t="shared" si="2"/>
         <v>466</v>
       </c>
     </row>
-    <row r="7" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>33</v>
       </c>
@@ -1878,12 +1898,18 @@
       <c r="O7" s="1">
         <v>118</v>
       </c>
-      <c r="Z7" s="1">
+      <c r="P7" s="1">
+        <v>124</v>
+      </c>
+      <c r="T7" s="1">
+        <v>122</v>
+      </c>
+      <c r="AC7" s="1">
         <f t="shared" si="2"/>
         <v>436</v>
       </c>
     </row>
-    <row r="8" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>32</v>
       </c>
@@ -1916,12 +1942,18 @@
       <c r="O8" s="1">
         <v>124</v>
       </c>
-      <c r="Z8" s="1">
+      <c r="P8" s="1">
+        <v>125</v>
+      </c>
+      <c r="T8" s="1">
+        <v>139</v>
+      </c>
+      <c r="AC8" s="1">
         <f t="shared" si="2"/>
         <v>494</v>
       </c>
     </row>
-    <row r="9" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>31</v>
       </c>
@@ -1954,12 +1986,18 @@
       <c r="O9" s="1">
         <v>118</v>
       </c>
-      <c r="Z9" s="1">
+      <c r="P9" s="1">
+        <v>115</v>
+      </c>
+      <c r="T9" s="1">
+        <v>108</v>
+      </c>
+      <c r="AC9" s="1">
         <f t="shared" si="2"/>
         <v>469</v>
       </c>
     </row>
-    <row r="10" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>30</v>
       </c>
@@ -1992,12 +2030,18 @@
       <c r="O10" s="1">
         <v>133</v>
       </c>
-      <c r="Z10" s="1">
+      <c r="P10" s="1">
+        <v>145</v>
+      </c>
+      <c r="T10" s="1">
+        <v>125</v>
+      </c>
+      <c r="AC10" s="1">
         <f t="shared" si="2"/>
         <v>613</v>
       </c>
     </row>
-    <row r="11" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>29</v>
       </c>
@@ -2030,12 +2074,18 @@
       <c r="O11" s="1">
         <v>152</v>
       </c>
-      <c r="Z11" s="1">
+      <c r="P11" s="1">
+        <v>164</v>
+      </c>
+      <c r="T11" s="1">
+        <v>181</v>
+      </c>
+      <c r="AC11" s="1">
         <f t="shared" si="2"/>
         <v>652</v>
       </c>
     </row>
-    <row r="12" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>28</v>
       </c>
@@ -2068,12 +2118,18 @@
       <c r="O12" s="1">
         <v>181</v>
       </c>
-      <c r="Z12" s="1">
+      <c r="P12" s="1">
+        <v>131</v>
+      </c>
+      <c r="T12" s="1">
+        <v>160</v>
+      </c>
+      <c r="AC12" s="1">
         <f t="shared" si="2"/>
         <v>788</v>
       </c>
     </row>
-    <row r="13" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>27</v>
       </c>
@@ -2106,12 +2162,18 @@
       <c r="O13" s="1">
         <v>152</v>
       </c>
-      <c r="Z13" s="1">
+      <c r="P13" s="1">
+        <v>180</v>
+      </c>
+      <c r="T13" s="1">
+        <v>168</v>
+      </c>
+      <c r="AC13" s="1">
         <f t="shared" si="2"/>
         <v>790</v>
       </c>
     </row>
-    <row r="14" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>26</v>
       </c>
@@ -2144,12 +2206,18 @@
       <c r="O14" s="1">
         <v>192</v>
       </c>
-      <c r="Z14" s="1">
+      <c r="P14" s="1">
+        <v>192</v>
+      </c>
+      <c r="T14" s="1">
+        <v>180</v>
+      </c>
+      <c r="AC14" s="1">
         <f t="shared" si="2"/>
         <v>847</v>
       </c>
     </row>
-    <row r="15" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>25</v>
       </c>
@@ -2182,12 +2250,18 @@
       <c r="O15" s="1">
         <v>177</v>
       </c>
-      <c r="Z15" s="1">
+      <c r="P15" s="1">
+        <v>144</v>
+      </c>
+      <c r="T15" s="1">
+        <v>112</v>
+      </c>
+      <c r="AC15" s="1">
         <f t="shared" si="2"/>
         <v>831</v>
       </c>
     </row>
-    <row r="16" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>24</v>
       </c>
@@ -2220,12 +2294,18 @@
       <c r="O16" s="1">
         <v>303</v>
       </c>
-      <c r="Z16" s="1">
+      <c r="P16" s="1">
+        <v>296</v>
+      </c>
+      <c r="T16" s="1">
+        <v>322</v>
+      </c>
+      <c r="AC16" s="1">
         <f t="shared" si="2"/>
         <v>1277</v>
       </c>
     </row>
-    <row r="17" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>23</v>
       </c>
@@ -2258,12 +2338,18 @@
       <c r="O17" s="1">
         <v>789</v>
       </c>
-      <c r="Z17" s="1">
+      <c r="P17" s="1">
+        <v>814</v>
+      </c>
+      <c r="T17" s="1">
+        <v>843</v>
+      </c>
+      <c r="AC17" s="1">
         <f t="shared" si="2"/>
         <v>3213</v>
       </c>
     </row>
-    <row r="18" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>22</v>
       </c>
@@ -2296,12 +2382,18 @@
       <c r="O18" s="20">
         <v>943</v>
       </c>
-      <c r="Z18" s="1">
+      <c r="P18" s="1">
+        <v>1039</v>
+      </c>
+      <c r="T18" s="1">
+        <v>904</v>
+      </c>
+      <c r="AC18" s="1">
         <f t="shared" si="2"/>
         <v>4516</v>
       </c>
     </row>
-    <row r="19" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>137</v>
       </c>
@@ -2337,7 +2429,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="20" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C20" s="20"/>
       <c r="D20" s="20"/>
       <c r="E20" s="20"/>
@@ -2351,7 +2443,7 @@
       <c r="M20" s="20"/>
       <c r="N20" s="20"/>
     </row>
-    <row r="21" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>59</v>
       </c>
@@ -2384,12 +2476,18 @@
       <c r="O21" s="1">
         <v>1573</v>
       </c>
-      <c r="Z21" s="1">
+      <c r="P21" s="1">
+        <v>1466</v>
+      </c>
+      <c r="T21" s="1">
+        <v>1458</v>
+      </c>
+      <c r="AC21" s="1">
         <f t="shared" si="2"/>
         <v>6080</v>
       </c>
     </row>
-    <row r="22" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>21</v>
       </c>
@@ -2423,12 +2521,18 @@
       <c r="O22" s="1">
         <v>4407</v>
       </c>
-      <c r="Z22" s="1">
+      <c r="P22" s="1">
+        <v>4557</v>
+      </c>
+      <c r="T22" s="1">
+        <v>4605</v>
+      </c>
+      <c r="AC22" s="1">
         <f t="shared" si="2"/>
         <v>19252</v>
       </c>
     </row>
-    <row r="23" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>20</v>
       </c>
@@ -2462,12 +2566,18 @@
       <c r="O23" s="1">
         <v>8351</v>
       </c>
-      <c r="Z23" s="1">
+      <c r="P23" s="1">
+        <v>4924</v>
+      </c>
+      <c r="T23" s="1">
+        <v>4981</v>
+      </c>
+      <c r="AC23" s="1">
         <f t="shared" si="2"/>
         <v>25169</v>
       </c>
     </row>
-    <row r="24" spans="2:26" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:29" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="21" t="s">
         <v>19</v>
       </c>
@@ -2502,24 +2612,44 @@
       <c r="O24" s="21">
         <v>14389</v>
       </c>
-      <c r="V24" s="21">
+      <c r="P24" s="21">
+        <f>SUM(P21:P23)</f>
+        <v>10947</v>
+      </c>
+      <c r="Q24" s="21">
+        <f>SUM(Q21:Q23)</f>
+        <v>0</v>
+      </c>
+      <c r="R24" s="21">
+        <f>SUM(R21:R23)</f>
+        <v>0</v>
+      </c>
+      <c r="S24" s="21">
+        <f>SUM(S21:S23)</f>
+        <v>0</v>
+      </c>
+      <c r="T24" s="21">
+        <f>SUM(T21:T23)</f>
+        <v>11044</v>
+      </c>
+      <c r="Y24" s="21">
         <v>36742</v>
       </c>
-      <c r="W24" s="21">
+      <c r="Z24" s="21">
         <v>43545</v>
       </c>
-      <c r="X24" s="21">
+      <c r="AA24" s="21">
         <v>41400</v>
       </c>
-      <c r="Y24" s="21">
+      <c r="AB24" s="21">
         <v>44081</v>
       </c>
-      <c r="Z24" s="21">
-        <f>SUM(Z21:Z23)</f>
+      <c r="AC24" s="21">
+        <f>SUM(AC21:AC23)</f>
         <v>50501</v>
       </c>
     </row>
-    <row r="25" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>68</v>
       </c>
@@ -2548,14 +2678,14 @@
       <c r="O25" s="1">
         <v>5733</v>
       </c>
-      <c r="Y25" s="1">
+      <c r="AB25" s="1">
         <v>16816</v>
       </c>
-      <c r="Z25" s="1">
+      <c r="AC25" s="1">
         <v>19871</v>
       </c>
     </row>
-    <row r="26" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>67</v>
       </c>
@@ -2590,16 +2720,16 @@
         <f>+O24-O25</f>
         <v>8656</v>
       </c>
-      <c r="Y26" s="1">
-        <f>+Y24-Y25</f>
+      <c r="AB26" s="1">
+        <f>+AB24-AB25</f>
         <v>27265</v>
       </c>
-      <c r="Z26" s="1">
-        <f>+Z24-Z25</f>
+      <c r="AC26" s="1">
+        <f>+AC24-AC25</f>
         <v>30630</v>
       </c>
     </row>
-    <row r="27" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>66</v>
       </c>
@@ -2628,14 +2758,14 @@
       <c r="O27" s="1">
         <v>3394</v>
       </c>
-      <c r="Y27" s="1">
+      <c r="AB27" s="1">
         <v>12363</v>
       </c>
-      <c r="Z27" s="1">
+      <c r="AC27" s="1">
         <v>14084</v>
       </c>
     </row>
-    <row r="28" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>65</v>
       </c>
@@ -2664,14 +2794,14 @@
       <c r="O28" s="1">
         <v>1571</v>
       </c>
-      <c r="Y28" s="1">
+      <c r="AB28" s="1">
         <v>5412</v>
       </c>
-      <c r="Z28" s="1">
+      <c r="AC28" s="1">
         <v>6572</v>
       </c>
     </row>
-    <row r="29" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>64</v>
       </c>
@@ -2700,14 +2830,14 @@
       <c r="O29" s="1">
         <v>658</v>
       </c>
-      <c r="Y29" s="1">
+      <c r="AB29" s="1">
         <v>2962</v>
       </c>
-      <c r="Z29" s="1">
+      <c r="AC29" s="1">
         <v>2838</v>
       </c>
     </row>
-    <row r="30" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
         <v>63</v>
       </c>
@@ -2742,16 +2872,16 @@
         <f>+O27+O28+O29</f>
         <v>5623</v>
       </c>
-      <c r="Y30" s="1">
-        <f>+Y27+Y28+Y29</f>
+      <c r="AB30" s="1">
+        <f>+AB27+AB28+AB29</f>
         <v>20737</v>
       </c>
-      <c r="Z30" s="1">
-        <f>+Z27+Z28+Z29</f>
+      <c r="AC30" s="1">
+        <f>+AC27+AC28+AC29</f>
         <v>23494</v>
       </c>
     </row>
-    <row r="31" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>62</v>
       </c>
@@ -2786,16 +2916,16 @@
         <f>+O26-O30</f>
         <v>3033</v>
       </c>
-      <c r="Y31" s="1">
-        <f>+Y26-Y30</f>
+      <c r="AB31" s="1">
+        <f>+AB26-AB30</f>
         <v>6528</v>
       </c>
-      <c r="Z31" s="1">
-        <f>+Z26-Z30</f>
+      <c r="AC31" s="1">
+        <f>+AC26-AC30</f>
         <v>7136</v>
       </c>
     </row>
-    <row r="32" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
         <v>61</v>
       </c>
@@ -2824,16 +2954,16 @@
         <f>384-444+148-478</f>
         <v>-390</v>
       </c>
-      <c r="Y32" s="1">
+      <c r="AB32" s="1">
         <f>1500-4675+526-1882</f>
         <v>-4531</v>
       </c>
-      <c r="Z32" s="1">
+      <c r="AC32" s="1">
         <f>3039-3401+450-2642</f>
         <v>-2554</v>
       </c>
     </row>
-    <row r="33" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
         <v>60</v>
       </c>
@@ -2865,16 +2995,16 @@
         <f>+O31+O32</f>
         <v>2643</v>
       </c>
-      <c r="Y33" s="1">
-        <f>+Y31+Y32</f>
+      <c r="AB33" s="1">
+        <f>+AB31+AB32</f>
         <v>1997</v>
       </c>
-      <c r="Z33" s="1">
-        <f>+Z31+Z32</f>
+      <c r="AC33" s="1">
+        <f>+AC31+AC32</f>
         <v>4582</v>
       </c>
     </row>
-    <row r="34" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
         <v>70</v>
       </c>
@@ -2903,14 +3033,14 @@
         <f>424+4</f>
         <v>428</v>
       </c>
-      <c r="Y34" s="1">
+      <c r="AB34" s="1">
         <v>1024</v>
       </c>
-      <c r="Z34" s="1">
+      <c r="AC34" s="1">
         <v>504</v>
       </c>
     </row>
-    <row r="35" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
         <v>69</v>
       </c>
@@ -2945,16 +3075,16 @@
         <f t="shared" si="4"/>
         <v>2215</v>
       </c>
-      <c r="Y35" s="1">
-        <f>+Y33-Y34</f>
+      <c r="AB35" s="1">
+        <f>+AB33-AB34</f>
         <v>973</v>
       </c>
-      <c r="Z35" s="1">
-        <f>+Z33-Z34</f>
+      <c r="AC35" s="1">
+        <f>+AC33-AC34</f>
         <v>4078</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>75</v>
       </c>
@@ -2962,24 +3092,24 @@
         <f>O24/K24-1</f>
         <v>-1.707766923970222E-2</v>
       </c>
-      <c r="W37" s="18">
-        <f>+W24/V24-1</f>
-        <v>0.18515595231615056</v>
-      </c>
-      <c r="X37" s="18">
-        <f>+X24/W24-1</f>
-        <v>-4.9259386841198793E-2</v>
-      </c>
-      <c r="Y37" s="18">
-        <f>+Y24/X24-1</f>
-        <v>6.4758454106280228E-2</v>
-      </c>
       <c r="Z37" s="18">
         <f>+Z24/Y24-1</f>
+        <v>0.18515595231615056</v>
+      </c>
+      <c r="AA37" s="18">
+        <f>+AA24/Z24-1</f>
+        <v>-4.9259386841198793E-2</v>
+      </c>
+      <c r="AB37" s="18">
+        <f>+AB24/AA24-1</f>
+        <v>6.4758454106280228E-2</v>
+      </c>
+      <c r="AC37" s="18">
+        <f>+AC24/AB24-1</f>
         <v>0.14564097910664464</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>78</v>
       </c>
@@ -2987,42 +3117,42 @@
         <v>-1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>138</v>
       </c>
-      <c r="Y41" s="1">
+      <c r="AB41" s="1">
         <v>5089</v>
       </c>
-      <c r="Z41" s="1">
+      <c r="AC41" s="1">
         <v>7093</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>139</v>
       </c>
-      <c r="Y42" s="1">
+      <c r="AB42" s="1">
         <v>2611</v>
       </c>
-      <c r="Z42" s="1">
+      <c r="AC42" s="1">
         <v>2949</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>140</v>
       </c>
-      <c r="Y43" s="1">
-        <f>+Y41-Y42</f>
+      <c r="AB43" s="1">
+        <f>+AB41-AB42</f>
         <v>2478</v>
       </c>
-      <c r="Z43" s="1">
-        <f>+Z41-Z42</f>
+      <c r="AC43" s="1">
+        <f>+AC41-AC42</f>
         <v>4144</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>76</v>
       </c>
@@ -3035,19 +3165,19 @@
       <c r="O45" s="1">
         <v>101735</v>
       </c>
-      <c r="V45" s="1">
+      <c r="Y45" s="1">
         <v>107894</v>
       </c>
-      <c r="W45" s="1">
+      <c r="Z45" s="1">
         <v>103824</v>
       </c>
-      <c r="X45" s="1">
+      <c r="AA45" s="1">
         <v>99538</v>
       </c>
-      <c r="Y45" s="1">
+      <c r="AB45" s="1">
         <v>99637</v>
       </c>
-      <c r="Z45" s="1">
+      <c r="AC45" s="1">
         <v>101369</v>
       </c>
     </row>

--- a/BAYN GY.xlsx
+++ b/BAYN GY.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EAE8FB4-6EBB-495E-A40D-87B8DAD03ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63562D74-C432-4B23-8937-24127A53AED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-42975" yWindow="2265" windowWidth="32220" windowHeight="15480" activeTab="2" xr2:uid="{4F5840C1-5FD8-4A3A-9BFB-E4B596159E87}"/>
+    <workbookView xWindow="18550" yWindow="1180" windowWidth="17850" windowHeight="18760" activeTab="2" xr2:uid="{4F5840C1-5FD8-4A3A-9BFB-E4B596159E87}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="149">
   <si>
     <t>Price EUR</t>
   </si>
@@ -473,6 +473,18 @@
   </si>
   <si>
     <t>Q424</t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
   </si>
 </sst>
 </file>
@@ -728,13 +740,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>41073</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>41073</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>144172</xdr:rowOff>
@@ -1085,18 +1097,18 @@
       <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>122</v>
       </c>
@@ -1104,12 +1116,12 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>125</v>
       </c>
@@ -1117,7 +1129,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>127</v>
       </c>
@@ -1135,21 +1147,21 @@
   <dimension ref="B2:K33"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.140625" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="2.1796875" customWidth="1"/>
+    <col min="2" max="2" width="25.1796875" customWidth="1"/>
+    <col min="3" max="3" width="11.81640625" customWidth="1"/>
+    <col min="4" max="4" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.453125" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" customWidth="1"/>
+    <col min="9" max="9" width="10.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>37</v>
       </c>
@@ -1175,7 +1187,7 @@
         <v>27.86</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>38</v>
       </c>
@@ -1199,10 +1211,10 @@
         <v>982.42</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>47</v>
       </c>
@@ -1227,7 +1239,7 @@
         <v>27370.2212</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>51</v>
       </c>
@@ -1251,10 +1263,10 @@
         <v>0</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>54</v>
       </c>
@@ -1275,13 +1287,13 @@
         <v>4</v>
       </c>
       <c r="J6" s="1">
-        <v>36760</v>
+        <v>34255</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>55</v>
       </c>
@@ -1299,22 +1311,22 @@
       </c>
       <c r="J7" s="1">
         <f>+J4-J5+J6</f>
-        <v>64130.2212</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+        <v>61625.2212</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>131</v>
       </c>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>136</v>
       </c>
@@ -1323,49 +1335,49 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>129</v>
       </c>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>130</v>
       </c>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>132</v>
       </c>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>135</v>
       </c>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>35</v>
       </c>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>134</v>
       </c>
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G17" s="6"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -1375,7 +1387,7 @@
       </c>
       <c r="G18" s="23"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>115</v>
       </c>
@@ -1390,7 +1402,7 @@
       </c>
       <c r="G19" s="6"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>119</v>
       </c>
@@ -1405,7 +1417,7 @@
       </c>
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>80</v>
       </c>
@@ -1420,7 +1432,7 @@
       </c>
       <c r="G21" s="6"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>83</v>
       </c>
@@ -1432,7 +1444,7 @@
       </c>
       <c r="G22" s="6"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>85</v>
       </c>
@@ -1444,7 +1456,7 @@
       </c>
       <c r="G23" s="6"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>80</v>
       </c>
@@ -1459,7 +1471,7 @@
       </c>
       <c r="G24" s="6"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>88</v>
       </c>
@@ -1471,7 +1483,7 @@
       </c>
       <c r="G25" s="6"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>89</v>
       </c>
@@ -1486,7 +1498,7 @@
       </c>
       <c r="G26" s="6"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>92</v>
       </c>
@@ -1501,7 +1513,7 @@
       </c>
       <c r="G27" s="6"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>94</v>
       </c>
@@ -1516,7 +1528,7 @@
       </c>
       <c r="G28" s="6"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>97</v>
       </c>
@@ -1531,7 +1543,7 @@
       </c>
       <c r="G29" s="6"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>100</v>
       </c>
@@ -1546,7 +1558,7 @@
       </c>
       <c r="G30" s="6"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>103</v>
       </c>
@@ -1561,7 +1573,7 @@
       </c>
       <c r="G31" s="6"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>106</v>
       </c>
@@ -1576,7 +1588,7 @@
       </c>
       <c r="G32" s="6"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="7" t="s">
         <v>109</v>
       </c>
@@ -1599,28 +1611,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF02EF3E-496B-43E3-A0BD-53D57B7F10F6}">
-  <dimension ref="A1:AJ45"/>
+  <dimension ref="A1:AO45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="T24" sqref="T24"/>
+      <selection pane="bottomRight" activeCell="S35" sqref="S35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="14" width="9.140625" style="2"/>
+    <col min="2" max="2" width="18.26953125" customWidth="1"/>
+    <col min="3" max="14" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
@@ -1681,55 +1693,68 @@
       <c r="V2" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="Y2">
+      <c r="W2" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA2" s="2"/>
+      <c r="AD2">
         <v>2018</v>
       </c>
-      <c r="Z2">
-        <f>+Y2+1</f>
+      <c r="AE2">
+        <f>+AD2+1</f>
         <v>2019</v>
       </c>
-      <c r="AA2">
-        <f t="shared" ref="AA2:AC2" si="0">+Z2+1</f>
+      <c r="AF2">
+        <f t="shared" ref="AF2:AH2" si="0">+AE2+1</f>
         <v>2020</v>
       </c>
-      <c r="AB2">
+      <c r="AG2">
         <f t="shared" si="0"/>
         <v>2021</v>
       </c>
-      <c r="AC2">
+      <c r="AH2">
         <f t="shared" si="0"/>
         <v>2022</v>
       </c>
-      <c r="AD2">
-        <f>+AC2+1</f>
+      <c r="AI2">
+        <f>+AH2+1</f>
         <v>2023</v>
       </c>
-      <c r="AE2">
-        <f t="shared" ref="AE2:AJ2" si="1">+AD2+1</f>
+      <c r="AJ2">
+        <f t="shared" ref="AJ2:AO2" si="1">+AI2+1</f>
         <v>2024</v>
       </c>
-      <c r="AF2">
+      <c r="AK2">
         <f t="shared" si="1"/>
         <v>2025</v>
       </c>
-      <c r="AG2">
+      <c r="AL2">
         <f t="shared" si="1"/>
         <v>2026</v>
       </c>
-      <c r="AH2">
+      <c r="AM2">
         <f t="shared" si="1"/>
         <v>2027</v>
       </c>
-      <c r="AI2">
+      <c r="AN2">
         <f t="shared" si="1"/>
         <v>2028</v>
       </c>
-      <c r="AJ2">
+      <c r="AO2">
         <f t="shared" si="1"/>
         <v>2029</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>77</v>
       </c>
@@ -1749,12 +1774,12 @@
         <v>115</v>
       </c>
       <c r="U3" s="2"/>
-      <c r="AC3" s="1">
+      <c r="AH3" s="1">
         <f>SUM(K3:N3)</f>
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:41" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>36</v>
       </c>
@@ -1783,12 +1808,12 @@
       <c r="O4" s="1">
         <v>57</v>
       </c>
-      <c r="AC4" s="1">
-        <f t="shared" ref="AC4:AC23" si="2">SUM(K4:N4)</f>
+      <c r="AH4" s="1">
+        <f t="shared" ref="AH4:AH23" si="2">SUM(K4:N4)</f>
         <v>234</v>
       </c>
     </row>
-    <row r="5" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:41" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>35</v>
       </c>
@@ -1816,12 +1841,12 @@
       <c r="N5" s="20">
         <v>46</v>
       </c>
-      <c r="AC5" s="1">
+      <c r="AH5" s="1">
         <f t="shared" si="2"/>
         <v>185</v>
       </c>
     </row>
-    <row r="6" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:41" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>34</v>
       </c>
@@ -1857,15 +1882,21 @@
       <c r="P6" s="1">
         <v>201</v>
       </c>
+      <c r="S6" s="1">
+        <v>285</v>
+      </c>
       <c r="T6" s="1">
         <v>380</v>
       </c>
-      <c r="AC6" s="1">
+      <c r="W6" s="1">
+        <v>515</v>
+      </c>
+      <c r="AH6" s="1">
         <f t="shared" si="2"/>
         <v>466</v>
       </c>
     </row>
-    <row r="7" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:41" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>33</v>
       </c>
@@ -1901,15 +1932,21 @@
       <c r="P7" s="1">
         <v>124</v>
       </c>
+      <c r="S7" s="1">
+        <v>114</v>
+      </c>
       <c r="T7" s="1">
         <v>122</v>
       </c>
-      <c r="AC7" s="1">
+      <c r="W7" s="1">
+        <v>134</v>
+      </c>
+      <c r="AH7" s="1">
         <f t="shared" si="2"/>
         <v>436</v>
       </c>
     </row>
-    <row r="8" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:41" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>32</v>
       </c>
@@ -1945,15 +1982,21 @@
       <c r="P8" s="1">
         <v>125</v>
       </c>
+      <c r="S8" s="1">
+        <v>134</v>
+      </c>
       <c r="T8" s="1">
         <v>139</v>
       </c>
-      <c r="AC8" s="1">
+      <c r="W8" s="1">
+        <v>144</v>
+      </c>
+      <c r="AH8" s="1">
         <f t="shared" si="2"/>
         <v>494</v>
       </c>
     </row>
-    <row r="9" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:41" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>31</v>
       </c>
@@ -1989,15 +2032,21 @@
       <c r="P9" s="1">
         <v>115</v>
       </c>
+      <c r="S9" s="1">
+        <v>105</v>
+      </c>
       <c r="T9" s="1">
         <v>108</v>
       </c>
-      <c r="AC9" s="1">
+      <c r="W9" s="1">
+        <v>105</v>
+      </c>
+      <c r="AH9" s="1">
         <f t="shared" si="2"/>
         <v>469</v>
       </c>
     </row>
-    <row r="10" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:41" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>30</v>
       </c>
@@ -2033,15 +2082,21 @@
       <c r="P10" s="1">
         <v>145</v>
       </c>
+      <c r="S10" s="1">
+        <v>112</v>
+      </c>
       <c r="T10" s="1">
         <v>125</v>
       </c>
-      <c r="AC10" s="1">
+      <c r="W10" s="1">
+        <v>98</v>
+      </c>
+      <c r="AH10" s="1">
         <f t="shared" si="2"/>
         <v>613</v>
       </c>
     </row>
-    <row r="11" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:41" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>29</v>
       </c>
@@ -2077,15 +2132,21 @@
       <c r="P11" s="1">
         <v>164</v>
       </c>
+      <c r="S11" s="1">
+        <v>171</v>
+      </c>
       <c r="T11" s="1">
         <v>181</v>
       </c>
-      <c r="AC11" s="1">
+      <c r="W11" s="1">
+        <v>183</v>
+      </c>
+      <c r="AH11" s="1">
         <f t="shared" si="2"/>
         <v>652</v>
       </c>
     </row>
-    <row r="12" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:41" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>28</v>
       </c>
@@ -2121,15 +2182,21 @@
       <c r="P12" s="1">
         <v>131</v>
       </c>
+      <c r="S12" s="1">
+        <v>151</v>
+      </c>
       <c r="T12" s="1">
         <v>160</v>
       </c>
-      <c r="AC12" s="1">
+      <c r="W12" s="1">
+        <v>189</v>
+      </c>
+      <c r="AH12" s="1">
         <f t="shared" si="2"/>
         <v>788</v>
       </c>
     </row>
-    <row r="13" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:41" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>27</v>
       </c>
@@ -2165,15 +2232,21 @@
       <c r="P13" s="1">
         <v>180</v>
       </c>
+      <c r="S13" s="1">
+        <v>165</v>
+      </c>
       <c r="T13" s="1">
         <v>168</v>
       </c>
-      <c r="AC13" s="1">
+      <c r="W13" s="1">
+        <v>187</v>
+      </c>
+      <c r="AH13" s="1">
         <f t="shared" si="2"/>
         <v>790</v>
       </c>
     </row>
-    <row r="14" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:41" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>26</v>
       </c>
@@ -2209,15 +2282,21 @@
       <c r="P14" s="1">
         <v>192</v>
       </c>
+      <c r="S14" s="1">
+        <v>167</v>
+      </c>
       <c r="T14" s="1">
         <v>180</v>
       </c>
-      <c r="AC14" s="1">
+      <c r="W14" s="1">
+        <v>158</v>
+      </c>
+      <c r="AH14" s="1">
         <f t="shared" si="2"/>
         <v>847</v>
       </c>
     </row>
-    <row r="15" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:41" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>25</v>
       </c>
@@ -2253,15 +2332,21 @@
       <c r="P15" s="1">
         <v>144</v>
       </c>
+      <c r="S15" s="1">
+        <v>127</v>
+      </c>
       <c r="T15" s="1">
         <v>112</v>
       </c>
-      <c r="AC15" s="1">
+      <c r="W15" s="1">
+        <v>145</v>
+      </c>
+      <c r="AH15" s="1">
         <f t="shared" si="2"/>
         <v>831</v>
       </c>
     </row>
-    <row r="16" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:41" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>24</v>
       </c>
@@ -2297,15 +2382,21 @@
       <c r="P16" s="1">
         <v>296</v>
       </c>
+      <c r="S16" s="1">
+        <v>293</v>
+      </c>
       <c r="T16" s="1">
         <v>322</v>
       </c>
-      <c r="AC16" s="1">
+      <c r="W16" s="1">
+        <v>352</v>
+      </c>
+      <c r="AH16" s="1">
         <f t="shared" si="2"/>
         <v>1277</v>
       </c>
     </row>
-    <row r="17" spans="2:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>23</v>
       </c>
@@ -2341,15 +2432,21 @@
       <c r="P17" s="1">
         <v>814</v>
       </c>
+      <c r="S17" s="1">
+        <v>782</v>
+      </c>
       <c r="T17" s="1">
         <v>843</v>
       </c>
-      <c r="AC17" s="1">
+      <c r="W17" s="1">
+        <v>815</v>
+      </c>
+      <c r="AH17" s="1">
         <f t="shared" si="2"/>
         <v>3213</v>
       </c>
     </row>
-    <row r="18" spans="2:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>22</v>
       </c>
@@ -2385,15 +2482,21 @@
       <c r="P18" s="1">
         <v>1039</v>
       </c>
+      <c r="S18" s="1">
+        <v>926</v>
+      </c>
       <c r="T18" s="1">
         <v>904</v>
       </c>
-      <c r="AC18" s="1">
+      <c r="W18" s="1">
+        <v>633</v>
+      </c>
+      <c r="AH18" s="1">
         <f t="shared" si="2"/>
         <v>4516</v>
       </c>
     </row>
-    <row r="19" spans="2:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>137</v>
       </c>
@@ -2429,7 +2532,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="20" spans="2:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="20"/>
       <c r="D20" s="20"/>
       <c r="E20" s="20"/>
@@ -2443,7 +2546,7 @@
       <c r="M20" s="20"/>
       <c r="N20" s="20"/>
     </row>
-    <row r="21" spans="2:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>59</v>
       </c>
@@ -2479,15 +2582,21 @@
       <c r="P21" s="1">
         <v>1466</v>
       </c>
+      <c r="S21" s="1">
+        <v>1432</v>
+      </c>
       <c r="T21" s="1">
         <v>1458</v>
       </c>
-      <c r="AC21" s="1">
+      <c r="W21" s="1">
+        <v>1499</v>
+      </c>
+      <c r="AH21" s="1">
         <f t="shared" si="2"/>
         <v>6080</v>
       </c>
     </row>
-    <row r="22" spans="2:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>21</v>
       </c>
@@ -2524,15 +2633,21 @@
       <c r="P22" s="1">
         <v>4557</v>
       </c>
+      <c r="S22" s="1">
+        <v>4358</v>
+      </c>
       <c r="T22" s="1">
         <v>4605</v>
       </c>
-      <c r="AC22" s="1">
+      <c r="W22" s="1">
+        <v>4548</v>
+      </c>
+      <c r="AH22" s="1">
         <f t="shared" si="2"/>
         <v>19252</v>
       </c>
     </row>
-    <row r="23" spans="2:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>20</v>
       </c>
@@ -2569,15 +2684,21 @@
       <c r="P23" s="1">
         <v>4924</v>
       </c>
+      <c r="S23" s="1">
+        <v>7907</v>
+      </c>
       <c r="T23" s="1">
         <v>4981</v>
       </c>
-      <c r="AC23" s="1">
+      <c r="W23" s="1">
+        <v>7580</v>
+      </c>
+      <c r="AH23" s="1">
         <f t="shared" si="2"/>
         <v>25169</v>
       </c>
     </row>
-    <row r="24" spans="2:29" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:34" s="21" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B24" s="21" t="s">
         <v>19</v>
       </c>
@@ -2626,30 +2747,54 @@
       </c>
       <c r="S24" s="21">
         <f>SUM(S21:S23)</f>
-        <v>0</v>
+        <v>13697</v>
       </c>
       <c r="T24" s="21">
         <f>SUM(T21:T23)</f>
         <v>11044</v>
       </c>
+      <c r="U24" s="21">
+        <f t="shared" ref="U24:Z24" si="3">SUM(U21:U23)</f>
+        <v>0</v>
+      </c>
+      <c r="V24" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W24" s="21">
+        <f>SUM(W21:W23)</f>
+        <v>13627</v>
+      </c>
+      <c r="X24" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="Y24" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z24" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AD24" s="21">
         <v>36742</v>
       </c>
-      <c r="Z24" s="21">
+      <c r="AE24" s="21">
         <v>43545</v>
       </c>
-      <c r="AA24" s="21">
+      <c r="AF24" s="21">
         <v>41400</v>
       </c>
-      <c r="AB24" s="21">
+      <c r="AG24" s="21">
         <v>44081</v>
       </c>
-      <c r="AC24" s="21">
-        <f>SUM(AC21:AC23)</f>
+      <c r="AH24" s="21">
+        <f>SUM(AH21:AH23)</f>
         <v>50501</v>
       </c>
     </row>
-    <row r="25" spans="2:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>68</v>
       </c>
@@ -2678,14 +2823,20 @@
       <c r="O25" s="1">
         <v>5733</v>
       </c>
-      <c r="AB25" s="1">
+      <c r="S25" s="1">
+        <v>5463</v>
+      </c>
+      <c r="W25" s="1">
+        <v>5625</v>
+      </c>
+      <c r="AG25" s="1">
         <v>16816</v>
       </c>
-      <c r="AC25" s="1">
+      <c r="AH25" s="1">
         <v>19871</v>
       </c>
     </row>
-    <row r="26" spans="2:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>67</v>
       </c>
@@ -2720,16 +2871,36 @@
         <f>+O24-O25</f>
         <v>8656</v>
       </c>
-      <c r="AB26" s="1">
-        <f>+AB24-AB25</f>
+      <c r="S26" s="1">
+        <f t="shared" ref="S26:V26" si="4">+S24-S25</f>
+        <v>8234</v>
+      </c>
+      <c r="T26" s="1">
+        <f t="shared" si="4"/>
+        <v>11044</v>
+      </c>
+      <c r="U26" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V26" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W26" s="1">
+        <f>+W24-W25</f>
+        <v>8002</v>
+      </c>
+      <c r="AG26" s="1">
+        <f>+AG24-AG25</f>
         <v>27265</v>
       </c>
-      <c r="AC26" s="1">
-        <f>+AC24-AC25</f>
+      <c r="AH26" s="1">
+        <f>+AH24-AH25</f>
         <v>30630</v>
       </c>
     </row>
-    <row r="27" spans="2:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>66</v>
       </c>
@@ -2758,14 +2929,20 @@
       <c r="O27" s="1">
         <v>3394</v>
       </c>
-      <c r="AB27" s="1">
+      <c r="S27" s="1">
+        <v>3245</v>
+      </c>
+      <c r="W27" s="1">
+        <v>3159</v>
+      </c>
+      <c r="AG27" s="1">
         <v>12363</v>
       </c>
-      <c r="AC27" s="1">
+      <c r="AH27" s="1">
         <v>14084</v>
       </c>
     </row>
-    <row r="28" spans="2:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>65</v>
       </c>
@@ -2794,14 +2971,20 @@
       <c r="O28" s="1">
         <v>1571</v>
       </c>
-      <c r="AB28" s="1">
+      <c r="S28" s="1">
+        <v>1426</v>
+      </c>
+      <c r="W28" s="1">
+        <v>1458</v>
+      </c>
+      <c r="AG28" s="1">
         <v>5412</v>
       </c>
-      <c r="AC28" s="1">
+      <c r="AH28" s="1">
         <v>6572</v>
       </c>
     </row>
-    <row r="29" spans="2:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>64</v>
       </c>
@@ -2830,14 +3013,20 @@
       <c r="O29" s="1">
         <v>658</v>
       </c>
-      <c r="AB29" s="1">
+      <c r="S29" s="1">
+        <v>583</v>
+      </c>
+      <c r="W29" s="1">
+        <v>548</v>
+      </c>
+      <c r="AG29" s="1">
         <v>2962</v>
       </c>
-      <c r="AC29" s="1">
+      <c r="AH29" s="1">
         <v>2838</v>
       </c>
     </row>
-    <row r="30" spans="2:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>63</v>
       </c>
@@ -2872,16 +3061,36 @@
         <f>+O27+O28+O29</f>
         <v>5623</v>
       </c>
-      <c r="AB30" s="1">
-        <f>+AB27+AB28+AB29</f>
+      <c r="S30" s="1">
+        <f t="shared" ref="S30:V30" si="5">+S29+S28+S27</f>
+        <v>5254</v>
+      </c>
+      <c r="T30" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U30" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V30" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W30" s="1">
+        <f>+W29+W28+W27</f>
+        <v>5165</v>
+      </c>
+      <c r="AG30" s="1">
+        <f>+AG27+AG28+AG29</f>
         <v>20737</v>
       </c>
-      <c r="AC30" s="1">
-        <f>+AC27+AC28+AC29</f>
+      <c r="AH30" s="1">
+        <f>+AH27+AH28+AH29</f>
         <v>23494</v>
       </c>
     </row>
-    <row r="31" spans="2:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>62</v>
       </c>
@@ -2916,16 +3125,36 @@
         <f>+O26-O30</f>
         <v>3033</v>
       </c>
-      <c r="AB31" s="1">
-        <f>+AB26-AB30</f>
+      <c r="S31" s="1">
+        <f t="shared" ref="S31:V31" si="6">+S26-S30</f>
+        <v>2980</v>
+      </c>
+      <c r="T31" s="1">
+        <f t="shared" si="6"/>
+        <v>11044</v>
+      </c>
+      <c r="U31" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V31" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W31" s="1">
+        <f>+W26-W30</f>
+        <v>2837</v>
+      </c>
+      <c r="AG31" s="1">
+        <f>+AG26-AG30</f>
         <v>6528</v>
       </c>
-      <c r="AC31" s="1">
-        <f>+AC26-AC30</f>
+      <c r="AH31" s="1">
+        <f>+AH26-AH30</f>
         <v>7136</v>
       </c>
     </row>
-    <row r="32" spans="2:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>61</v>
       </c>
@@ -2954,16 +3183,24 @@
         <f>384-444+148-478</f>
         <v>-390</v>
       </c>
-      <c r="AB32" s="1">
+      <c r="S32" s="1">
+        <f>92-584</f>
+        <v>-492</v>
+      </c>
+      <c r="W32" s="1">
+        <f>161-648</f>
+        <v>-487</v>
+      </c>
+      <c r="AG32" s="1">
         <f>1500-4675+526-1882</f>
         <v>-4531</v>
       </c>
-      <c r="AC32" s="1">
+      <c r="AH32" s="1">
         <f>3039-3401+450-2642</f>
         <v>-2554</v>
       </c>
     </row>
-    <row r="33" spans="2:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>60</v>
       </c>
@@ -2995,16 +3232,36 @@
         <f>+O31+O32</f>
         <v>2643</v>
       </c>
-      <c r="AB33" s="1">
-        <f>+AB31+AB32</f>
+      <c r="S33" s="1">
+        <f>+S31+S32</f>
+        <v>2488</v>
+      </c>
+      <c r="T33" s="1">
+        <f>+T31+T32</f>
+        <v>11044</v>
+      </c>
+      <c r="U33" s="1">
+        <f>+U31+U32</f>
+        <v>0</v>
+      </c>
+      <c r="V33" s="1">
+        <f>+V31+V32</f>
+        <v>0</v>
+      </c>
+      <c r="W33" s="1">
+        <f>+W31+W32</f>
+        <v>2350</v>
+      </c>
+      <c r="AG33" s="1">
+        <f>+AG31+AG32</f>
         <v>1997</v>
       </c>
-      <c r="AC33" s="1">
-        <f>+AC31+AC32</f>
+      <c r="AH33" s="1">
+        <f>+AH31+AH32</f>
         <v>4582</v>
       </c>
     </row>
-    <row r="34" spans="2:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>70</v>
       </c>
@@ -3033,14 +3290,20 @@
         <f>424+4</f>
         <v>428</v>
       </c>
-      <c r="AB34" s="1">
+      <c r="S34" s="1">
+        <v>526</v>
+      </c>
+      <c r="W34" s="1">
+        <v>589</v>
+      </c>
+      <c r="AG34" s="1">
         <v>1024</v>
       </c>
-      <c r="AC34" s="1">
+      <c r="AH34" s="1">
         <v>504</v>
       </c>
     </row>
-    <row r="35" spans="2:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>69</v>
       </c>
@@ -3056,7 +3319,7 @@
       <c r="I35" s="20"/>
       <c r="J35" s="20"/>
       <c r="K35" s="20">
-        <f t="shared" ref="K35" si="3">+K33-K34</f>
+        <f t="shared" ref="K35" si="7">+K33-K34</f>
         <v>3311</v>
       </c>
       <c r="L35" s="20">
@@ -3064,27 +3327,47 @@
         <v>479</v>
       </c>
       <c r="M35" s="20">
-        <f t="shared" ref="M35:O35" si="4">+M33-M34</f>
+        <f t="shared" ref="M35:O35" si="8">+M33-M34</f>
         <v>1379</v>
       </c>
       <c r="N35" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O35" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2215</v>
       </c>
-      <c r="AB35" s="1">
-        <f>+AB33-AB34</f>
+      <c r="S35" s="1">
+        <f t="shared" ref="S35:V35" si="9">+S33-S34</f>
+        <v>1962</v>
+      </c>
+      <c r="T35" s="1">
+        <f t="shared" si="9"/>
+        <v>11044</v>
+      </c>
+      <c r="U35" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V35" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="W35" s="1">
+        <f>+W33-W34</f>
+        <v>1761</v>
+      </c>
+      <c r="AG35" s="1">
+        <f>+AG33-AG34</f>
         <v>973</v>
       </c>
-      <c r="AC35" s="1">
-        <f>+AC33-AC34</f>
+      <c r="AH35" s="1">
+        <f>+AH33-AH34</f>
         <v>4078</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>75</v>
       </c>
@@ -3092,24 +3375,24 @@
         <f>O24/K24-1</f>
         <v>-1.707766923970222E-2</v>
       </c>
-      <c r="Z37" s="18">
-        <f>+Z24/Y24-1</f>
+      <c r="AE37" s="18">
+        <f>+AE24/AD24-1</f>
         <v>0.18515595231615056</v>
       </c>
-      <c r="AA37" s="18">
-        <f>+AA24/Z24-1</f>
+      <c r="AF37" s="18">
+        <f>+AF24/AE24-1</f>
         <v>-4.9259386841198793E-2</v>
       </c>
-      <c r="AB37" s="18">
-        <f>+AB24/AA24-1</f>
+      <c r="AG37" s="18">
+        <f>+AG24/AF24-1</f>
         <v>6.4758454106280228E-2</v>
       </c>
-      <c r="AC37" s="18">
-        <f>+AC24/AB24-1</f>
+      <c r="AH37" s="18">
+        <f>+AH24/AG24-1</f>
         <v>0.14564097910664464</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>78</v>
       </c>
@@ -3117,42 +3400,42 @@
         <v>-1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>138</v>
       </c>
-      <c r="AB41" s="1">
+      <c r="AG41" s="1">
         <v>5089</v>
       </c>
-      <c r="AC41" s="1">
+      <c r="AH41" s="1">
         <v>7093</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>139</v>
       </c>
-      <c r="AB42" s="1">
+      <c r="AG42" s="1">
         <v>2611</v>
       </c>
-      <c r="AC42" s="1">
+      <c r="AH42" s="1">
         <v>2949</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>140</v>
       </c>
-      <c r="AB43" s="1">
-        <f>+AB41-AB42</f>
+      <c r="AG43" s="1">
+        <f>+AG41-AG42</f>
         <v>2478</v>
       </c>
-      <c r="AC43" s="1">
-        <f>+AC41-AC42</f>
+      <c r="AH43" s="1">
+        <f>+AH41-AH42</f>
         <v>4144</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>76</v>
       </c>
@@ -3165,19 +3448,19 @@
       <c r="O45" s="1">
         <v>101735</v>
       </c>
-      <c r="Y45" s="1">
+      <c r="AD45" s="1">
         <v>107894</v>
       </c>
-      <c r="Z45" s="1">
+      <c r="AE45" s="1">
         <v>103824</v>
       </c>
-      <c r="AA45" s="1">
+      <c r="AF45" s="1">
         <v>99538</v>
       </c>
-      <c r="AB45" s="1">
+      <c r="AG45" s="1">
         <v>99637</v>
       </c>
-      <c r="AC45" s="1">
+      <c r="AH45" s="1">
         <v>101369</v>
       </c>
     </row>
